--- a/Dados/BR_TRI/tabPSTRI_2014.xlsx
+++ b/Dados/BR_TRI/tabPSTRI_2014.xlsx
@@ -16,12 +16,9 @@
     <sheet name="N PRINCIPAL" sheetId="7" r:id="rId7"/>
     <sheet name="HABITUAL PRINCIPAL" sheetId="8" r:id="rId8"/>
     <sheet name="EFETIVA PRINCIPAL" sheetId="9" r:id="rId9"/>
-    <sheet name="N P&amp;S" sheetId="10" r:id="rId10"/>
-    <sheet name="HABITUAL P&amp;S" sheetId="11" r:id="rId11"/>
-    <sheet name="EFETIVA P&amp;S" sheetId="12" r:id="rId12"/>
-    <sheet name="N SECUNDÁRIO" sheetId="13" r:id="rId13"/>
-    <sheet name="HABITUAL SECUNDÁRIO" sheetId="14" r:id="rId14"/>
-    <sheet name="EFETIVA SECUNDÁRIO" sheetId="15" r:id="rId15"/>
+    <sheet name="N SECUNDÁRIO" sheetId="10" r:id="rId10"/>
+    <sheet name="HABITUAL SECUNDÁRIO" sheetId="11" r:id="rId11"/>
+    <sheet name="EFETIVA SECUNDÁRIO" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -540,7 +537,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +546,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>cod_SCN_PR</t>
+          <t>cod_SCN_SEC</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -608,22 +605,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>24057.341437</v>
+        <v>146.2051635</v>
       </c>
       <c r="E2">
-        <v>4537.056516990457</v>
+        <v>148.8066837592117</v>
       </c>
       <c r="F2">
-        <v>15110.46314668061</v>
+        <v>-147.2351503673785</v>
       </c>
       <c r="G2">
-        <v>33004.21972731939</v>
+        <v>439.6454773673785</v>
       </c>
       <c r="H2">
-        <v>20584881.83836557</v>
+        <v>22143.42913141405</v>
       </c>
       <c r="I2">
-        <v>0.1885934291148439</v>
+        <v>1.01779362778259</v>
       </c>
     </row>
     <row r="3">
@@ -637,26 +634,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3">
-        <v>21788.86727724</v>
+        <v>607.52552267</v>
       </c>
       <c r="E3">
-        <v>4065.881057499888</v>
+        <v>658.1219102615187</v>
       </c>
       <c r="F3">
-        <v>13771.12651775386</v>
+        <v>-690.262285185666</v>
       </c>
       <c r="G3">
-        <v>29806.60803672614</v>
+        <v>1905.313330525666</v>
       </c>
       <c r="H3">
-        <v>16531388.77373641</v>
+        <v>433124.4487662704</v>
       </c>
       <c r="I3">
-        <v>0.1866035992493738</v>
+        <v>1.083282735792159</v>
       </c>
     </row>
     <row r="4">
@@ -670,31 +667,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4">
-        <v>18934.84153659</v>
+        <v>730.42022565</v>
       </c>
       <c r="E4">
-        <v>4159.175314972295</v>
+        <v>706.0448453297289</v>
       </c>
       <c r="F4">
-        <v>10733.12855554004</v>
+        <v>-661.8695276331748</v>
       </c>
       <c r="G4">
-        <v>27136.55451763996</v>
+        <v>2122.709978933175</v>
       </c>
       <c r="H4">
-        <v>17298739.30067489</v>
+        <v>498499.3236166808</v>
       </c>
       <c r="I4">
-        <v>0.2196572549569552</v>
+        <v>0.9666282785384543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -703,26 +700,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5">
-        <v>24109.9656917</v>
+        <v>366243.4184616</v>
       </c>
       <c r="E5">
-        <v>4508.286978367477</v>
+        <v>16657.27420906815</v>
       </c>
       <c r="F5">
-        <v>15219.8196813433</v>
+        <v>333395.9975756322</v>
       </c>
       <c r="G5">
-        <v>33000.1117020567</v>
+        <v>399090.8393475679</v>
       </c>
       <c r="H5">
-        <v>20324651.47931775</v>
+        <v>277464784.0760868</v>
       </c>
       <c r="I5">
-        <v>0.1869885273175433</v>
+        <v>0.04548142947943413</v>
       </c>
     </row>
     <row r="6">
@@ -736,26 +733,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6">
-        <v>9445044.421765169</v>
+        <v>359810.55435203</v>
       </c>
       <c r="E6">
-        <v>101690.0383509918</v>
+        <v>16033.96936356833</v>
       </c>
       <c r="F6">
-        <v>9244516.085153719</v>
+        <v>328192.2635352093</v>
       </c>
       <c r="G6">
-        <v>9645572.758376619</v>
+        <v>391428.8451688506</v>
       </c>
       <c r="H6">
-        <v>10340863899.82618</v>
+        <v>257088173.5518476</v>
       </c>
       <c r="I6">
-        <v>0.01076649656794172</v>
+        <v>0.0445622541352166</v>
       </c>
     </row>
     <row r="7">
@@ -769,26 +766,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7">
-        <v>9554290.299817171</v>
+        <v>362016.82719163</v>
       </c>
       <c r="E7">
-        <v>112781.8127119228</v>
+        <v>17088.54041117741</v>
       </c>
       <c r="F7">
-        <v>9331889.46616732</v>
+        <v>328318.9680960982</v>
       </c>
       <c r="G7">
-        <v>9776691.133467022</v>
+        <v>395714.6862871618</v>
       </c>
       <c r="H7">
-        <v>12719737278.58723</v>
+        <v>292018213.3844435</v>
       </c>
       <c r="I7">
-        <v>0.01180431085646215</v>
+        <v>0.04720371852254195</v>
       </c>
     </row>
     <row r="8">
@@ -802,31 +799,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D8">
-        <v>9369185.64732301</v>
+        <v>366776.57926684</v>
       </c>
       <c r="E8">
-        <v>120681.8313695162</v>
+        <v>15261.76241619482</v>
       </c>
       <c r="F8">
-        <v>9131206.320181606</v>
+        <v>336681.0469934092</v>
       </c>
       <c r="G8">
-        <v>9607164.974464415</v>
+        <v>396872.1115402709</v>
       </c>
       <c r="H8">
-        <v>14564104422.70035</v>
+        <v>232921392.0483769</v>
       </c>
       <c r="I8">
-        <v>0.01288071726959512</v>
+        <v>0.04161051517166661</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -835,26 +832,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9">
-        <v>9183223.58527421</v>
+        <v>1684.84137719</v>
       </c>
       <c r="E9">
-        <v>116013.1910298461</v>
+        <v>738.3645033849981</v>
       </c>
       <c r="F9">
-        <v>8954450.614003377</v>
+        <v>228.8186626967581</v>
       </c>
       <c r="G9">
-        <v>9411996.556545043</v>
+        <v>3140.864091683242</v>
       </c>
       <c r="H9">
-        <v>13459060492.92757</v>
+        <v>545182.1398589748</v>
       </c>
       <c r="I9">
-        <v>0.01263316633342996</v>
+        <v>0.438239773417989</v>
       </c>
     </row>
     <row r="10">
@@ -868,26 +865,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10">
-        <v>510647.13381244</v>
+        <v>1072.1177586</v>
       </c>
       <c r="E10">
-        <v>23664.65571768703</v>
+        <v>555.2496702353485</v>
       </c>
       <c r="F10">
-        <v>463981.4611024824</v>
+        <v>-22.81046231422283</v>
       </c>
       <c r="G10">
-        <v>557312.8065223976</v>
+        <v>2167.045979514222</v>
       </c>
       <c r="H10">
-        <v>560015930.2366575</v>
+        <v>308302.1962964633</v>
       </c>
       <c r="I10">
-        <v>0.04634248221665144</v>
+        <v>0.517899890922811</v>
       </c>
     </row>
     <row r="11">
@@ -901,26 +898,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D11">
-        <v>532698.64005265</v>
+        <v>2113.37555025</v>
       </c>
       <c r="E11">
-        <v>25980.91054342144</v>
+        <v>919.0693326217054</v>
       </c>
       <c r="F11">
-        <v>481465.4134809307</v>
+        <v>301.0107651655378</v>
       </c>
       <c r="G11">
-        <v>583931.8666243693</v>
+        <v>3925.740335334462</v>
       </c>
       <c r="H11">
-        <v>675007712.6652675</v>
+        <v>844688.4381657069</v>
       </c>
       <c r="I11">
-        <v>0.04877224867864049</v>
+        <v>0.4348821639925686</v>
       </c>
     </row>
     <row r="12">
@@ -934,31 +931,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D12">
-        <v>496415.10581299</v>
+        <v>3193.92859406</v>
       </c>
       <c r="E12">
-        <v>24923.14717375604</v>
+        <v>1487.951918470566</v>
       </c>
       <c r="F12">
-        <v>447267.7426403522</v>
+        <v>259.7520709000182</v>
       </c>
       <c r="G12">
-        <v>545562.4689856278</v>
+        <v>6128.105117219981</v>
       </c>
       <c r="H12">
-        <v>621163265.0447035</v>
+        <v>2214000.911680238</v>
       </c>
       <c r="I12">
-        <v>0.05020626262558801</v>
+        <v>0.4658688742252495</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -967,26 +964,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13">
-        <v>495398.77043472</v>
+        <v>106988.66816283</v>
       </c>
       <c r="E13">
-        <v>22889.84716107506</v>
+        <v>8086.244528614423</v>
       </c>
       <c r="F13">
-        <v>450260.9865285156</v>
+        <v>91042.94534620887</v>
       </c>
       <c r="G13">
-        <v>540536.5543409244</v>
+        <v>122934.3909794511</v>
       </c>
       <c r="H13">
-        <v>523945103.0573761</v>
+        <v>65387350.57654669</v>
       </c>
       <c r="I13">
-        <v>0.04620489296125801</v>
+        <v>0.07558038311410391</v>
       </c>
     </row>
     <row r="14">
@@ -1000,26 +997,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D14">
-        <v>11662678.96925403</v>
+        <v>109176.27979913</v>
       </c>
       <c r="E14">
-        <v>118819.8445122412</v>
+        <v>8256.818029447038</v>
       </c>
       <c r="F14">
-        <v>11428371.39928114</v>
+        <v>92894.19345126607</v>
       </c>
       <c r="G14">
-        <v>11896986.53922692</v>
+        <v>125458.3661469939</v>
       </c>
       <c r="H14">
-        <v>14118155449.91316</v>
+        <v>68175043.97140168</v>
       </c>
       <c r="I14">
-        <v>0.01018804040010724</v>
+        <v>0.07562831454450085</v>
       </c>
     </row>
     <row r="15">
@@ -1033,26 +1030,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D15">
-        <v>11826894.68219638</v>
+        <v>115095.1286788</v>
       </c>
       <c r="E15">
-        <v>129524.3023754242</v>
+        <v>7897.697738590367</v>
       </c>
       <c r="F15">
-        <v>11571478.38648752</v>
+        <v>99521.21193866446</v>
       </c>
       <c r="G15">
-        <v>12082310.97790524</v>
+        <v>130669.0454189355</v>
       </c>
       <c r="H15">
-        <v>16776544905.84031</v>
+        <v>62373629.5701354</v>
       </c>
       <c r="I15">
-        <v>0.0109516746243123</v>
+        <v>0.06861887057471171</v>
       </c>
     </row>
     <row r="16">
@@ -1066,31 +1063,31 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D16">
-        <v>12111751.48686824</v>
+        <v>117198.46746047</v>
       </c>
       <c r="E16">
-        <v>134477.0423877118</v>
+        <v>7423.273959505517</v>
       </c>
       <c r="F16">
-        <v>11846568.60308017</v>
+        <v>102560.0937962495</v>
       </c>
       <c r="G16">
-        <v>12376934.37065631</v>
+        <v>131836.8411246905</v>
       </c>
       <c r="H16">
-        <v>18084074929.34642</v>
+        <v>55104996.27787272</v>
       </c>
       <c r="I16">
-        <v>0.01110302193151123</v>
+        <v>0.06333934325557049</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1099,26 +1096,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17">
-        <v>12169445.27763945</v>
+        <v>3933.63541149</v>
       </c>
       <c r="E17">
-        <v>131750.5754024895</v>
+        <v>1048.086788339782</v>
       </c>
       <c r="F17">
-        <v>11909638.86826558</v>
+        <v>1866.853810279566</v>
       </c>
       <c r="G17">
-        <v>12429251.68701332</v>
+        <v>6000.417012700434</v>
       </c>
       <c r="H17">
-        <v>17358214118.88707</v>
+        <v>1098485.915892399</v>
       </c>
       <c r="I17">
-        <v>0.01082634190767696</v>
+        <v>0.2664422801560002</v>
       </c>
     </row>
     <row r="18">
@@ -1132,26 +1129,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18">
-        <v>978972.72032229</v>
+        <v>5419.14972405</v>
       </c>
       <c r="E18">
-        <v>29331.96804505611</v>
+        <v>1623.476403680802</v>
       </c>
       <c r="F18">
-        <v>921131.3539800583</v>
+        <v>2217.724805373344</v>
       </c>
       <c r="G18">
-        <v>1036814.086664522</v>
+        <v>8620.574642726657</v>
       </c>
       <c r="H18">
-        <v>860364349.396193</v>
+        <v>2635675.63330835</v>
       </c>
       <c r="I18">
-        <v>0.02996198712809859</v>
+        <v>0.299581389396914</v>
       </c>
     </row>
     <row r="19">
@@ -1165,26 +1162,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19">
-        <v>933580.35449023</v>
+        <v>10071.81047571</v>
       </c>
       <c r="E19">
-        <v>28257.42450684007</v>
+        <v>2953.354001303531</v>
       </c>
       <c r="F19">
-        <v>877857.9413102668</v>
+        <v>4247.924725347405</v>
       </c>
       <c r="G19">
-        <v>989302.7676701931</v>
+        <v>15895.6962260726</v>
       </c>
       <c r="H19">
-        <v>798482039.759766</v>
+        <v>8722299.857015578</v>
       </c>
       <c r="I19">
-        <v>0.03026780112813074</v>
+        <v>0.2932297036790039</v>
       </c>
     </row>
     <row r="20">
@@ -1198,31 +1195,31 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D20">
-        <v>937113.63389859</v>
+        <v>7491.2829806</v>
       </c>
       <c r="E20">
-        <v>30177.83855626083</v>
+        <v>2062.527059021556</v>
       </c>
       <c r="F20">
-        <v>877604.2476661986</v>
+        <v>3424.069248866123</v>
       </c>
       <c r="G20">
-        <v>996623.0201309813</v>
+        <v>11558.49671233388</v>
       </c>
       <c r="H20">
-        <v>910701939.927743</v>
+        <v>4254017.869196109</v>
       </c>
       <c r="I20">
-        <v>0.03220296607009619</v>
+        <v>0.2753236080338753</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1231,26 +1228,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D21">
-        <v>911522.36337067</v>
+        <v>85510.5857619</v>
       </c>
       <c r="E21">
-        <v>29586.54199028504</v>
+        <v>6257.281062805842</v>
       </c>
       <c r="F21">
-        <v>853178.9882711482</v>
+        <v>73171.49942087746</v>
       </c>
       <c r="G21">
-        <v>969865.7384701918</v>
+        <v>97849.67210292254</v>
       </c>
       <c r="H21">
-        <v>875363466.9428999</v>
+        <v>39153566.29894861</v>
       </c>
       <c r="I21">
-        <v>0.03245838300760778</v>
+        <v>0.07317551396769673</v>
       </c>
     </row>
     <row r="22">
@@ -1264,26 +1261,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22">
-        <v>8163355.31608688</v>
+        <v>80017.48422083</v>
       </c>
       <c r="E22">
-        <v>85692.00657234022</v>
+        <v>6282.314635500003</v>
       </c>
       <c r="F22">
-        <v>7994374.402936489</v>
+        <v>67629.03276230721</v>
       </c>
       <c r="G22">
-        <v>8332336.229237271</v>
+        <v>92405.93567935278</v>
       </c>
       <c r="H22">
-        <v>7343119990.394</v>
+        <v>39467477.17941753</v>
       </c>
       <c r="I22">
-        <v>0.01049715506116385</v>
+        <v>0.07851177397882503</v>
       </c>
     </row>
     <row r="23">
@@ -1297,26 +1294,26 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D23">
-        <v>7912810.65065589</v>
+        <v>92245.48849264</v>
       </c>
       <c r="E23">
-        <v>98572.18518307501</v>
+        <v>7612.478133175089</v>
       </c>
       <c r="F23">
-        <v>7718430.58500293</v>
+        <v>77234.01241995202</v>
       </c>
       <c r="G23">
-        <v>8107190.71630885</v>
+        <v>107256.964565328</v>
       </c>
       <c r="H23">
-        <v>9716475691.766432</v>
+        <v>57949823.32806889</v>
       </c>
       <c r="I23">
-        <v>0.01245729103538</v>
+        <v>0.08252412402566947</v>
       </c>
     </row>
     <row r="24">
@@ -1330,31 +1327,31 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D24">
-        <v>7701264.65733684</v>
+        <v>82823.27268433</v>
       </c>
       <c r="E24">
-        <v>84589.31583196347</v>
+        <v>6829.199254252321</v>
       </c>
       <c r="F24">
-        <v>7534458.202408222</v>
+        <v>69356.38852290796</v>
       </c>
       <c r="G24">
-        <v>7868071.112265459</v>
+        <v>96290.15684575205</v>
       </c>
       <c r="H24">
-        <v>7155352352.919665</v>
+        <v>46637962.45428046</v>
       </c>
       <c r="I24">
-        <v>0.01098382143657106</v>
+        <v>0.08245507612674176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1363,26 +1360,26 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D25">
-        <v>7895807.56480903</v>
+        <v>318267.01948012</v>
       </c>
       <c r="E25">
-        <v>100536.5014825272</v>
+        <v>13810.29334369075</v>
       </c>
       <c r="F25">
-        <v>7697553.952774384</v>
+        <v>291033.7211429926</v>
       </c>
       <c r="G25">
-        <v>8094061.176843676</v>
+        <v>345500.3178172474</v>
       </c>
       <c r="H25">
-        <v>10107588130.3462</v>
+        <v>190724202.2387891</v>
       </c>
       <c r="I25">
-        <v>0.01273289662359683</v>
+        <v>0.04339215972251687</v>
       </c>
     </row>
     <row r="26">
@@ -1396,26 +1393,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D26">
-        <v>17589742.78948524</v>
+        <v>309177.99948762</v>
       </c>
       <c r="E26">
-        <v>113257.0629162304</v>
+        <v>13737.56356187038</v>
       </c>
       <c r="F26">
-        <v>17366404.78308485</v>
+        <v>282088.1211197153</v>
       </c>
       <c r="G26">
-        <v>17813080.79588563</v>
+        <v>336267.8778555247</v>
       </c>
       <c r="H26">
-        <v>12827162300.41098</v>
+        <v>188720652.6164288</v>
       </c>
       <c r="I26">
-        <v>0.006438812907709658</v>
+        <v>0.0444325391348567</v>
       </c>
     </row>
     <row r="27">
@@ -1429,26 +1426,26 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D27">
-        <v>17477825.74761615</v>
+        <v>309551.10462627</v>
       </c>
       <c r="E27">
-        <v>128383.3003319546</v>
+        <v>13800.01380666552</v>
       </c>
       <c r="F27">
-        <v>17224659.45835391</v>
+        <v>282338.0770894514</v>
       </c>
       <c r="G27">
-        <v>17730992.03687838</v>
+        <v>336764.1321630886</v>
       </c>
       <c r="H27">
-        <v>16482271804.12485</v>
+        <v>190440381.0641589</v>
       </c>
       <c r="I27">
-        <v>0.00734549606946763</v>
+        <v>0.04458072867588915</v>
       </c>
     </row>
     <row r="28">
@@ -1462,31 +1459,31 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D28">
-        <v>17307808.81914138</v>
+        <v>346501.66593694</v>
       </c>
       <c r="E28">
-        <v>122752.08126727</v>
+        <v>14936.239427623</v>
       </c>
       <c r="F28">
-        <v>17065747.04916586</v>
+        <v>317048.0508511278</v>
       </c>
       <c r="G28">
-        <v>17549870.5891169</v>
+        <v>375955.2810227522</v>
       </c>
       <c r="H28">
-        <v>15068073455.44645</v>
+        <v>223091248.2392799</v>
       </c>
       <c r="I28">
-        <v>0.007092294729504618</v>
+        <v>0.04310582284571542</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1495,26 +1492,26 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D29">
-        <v>17610775.47742711</v>
+        <v>78781.51998591999</v>
       </c>
       <c r="E29">
-        <v>114683.6733721477</v>
+        <v>7327.563586137144</v>
       </c>
       <c r="F29">
-        <v>17384624.25720207</v>
+        <v>64331.88301881601</v>
       </c>
       <c r="G29">
-        <v>17836926.69765215</v>
+        <v>93231.15695302396</v>
       </c>
       <c r="H29">
-        <v>13152344938.12945</v>
+        <v>53693188.10888304</v>
       </c>
       <c r="I29">
-        <v>0.006512130798507157</v>
+        <v>0.09301119840600616</v>
       </c>
     </row>
     <row r="30">
@@ -1528,26 +1525,26 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D30">
-        <v>4179175.65141572</v>
+        <v>74254.69498041</v>
       </c>
       <c r="E30">
-        <v>58625.22122474953</v>
+        <v>6260.200188734546</v>
       </c>
       <c r="F30">
-        <v>4063569.262763368</v>
+        <v>61909.85224990886</v>
       </c>
       <c r="G30">
-        <v>4294782.040068071</v>
+        <v>86599.53771091114</v>
       </c>
       <c r="H30">
-        <v>3436916563.650822</v>
+        <v>39190106.40303204</v>
       </c>
       <c r="I30">
-        <v>0.01402793902785347</v>
+        <v>0.08430712954091485</v>
       </c>
     </row>
     <row r="31">
@@ -1561,26 +1558,26 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D31">
-        <v>4254915.29340258</v>
+        <v>75580.62890056999</v>
       </c>
       <c r="E31">
-        <v>63669.35535601512</v>
+        <v>6501.099547188072</v>
       </c>
       <c r="F31">
-        <v>4129362.091439995</v>
+        <v>62760.74310366037</v>
       </c>
       <c r="G31">
-        <v>4380468.495365164</v>
+        <v>88400.51469747961</v>
       </c>
       <c r="H31">
-        <v>4053786811.450531</v>
+        <v>42264295.32244896</v>
       </c>
       <c r="I31">
-        <v>0.01496371865610041</v>
+        <v>0.08601542011168743</v>
       </c>
     </row>
     <row r="32">
@@ -1594,31 +1591,31 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D32">
-        <v>4150309.32593724</v>
+        <v>73882.16663119</v>
       </c>
       <c r="E32">
-        <v>53898.86814919963</v>
+        <v>8012.50846943229</v>
       </c>
       <c r="F32">
-        <v>4044023.100162663</v>
+        <v>58081.84811902041</v>
       </c>
       <c r="G32">
-        <v>4256595.551711816</v>
+        <v>89682.4851433596</v>
       </c>
       <c r="H32">
-        <v>2905087987.764807</v>
+        <v>64200291.97272418</v>
       </c>
       <c r="I32">
-        <v>0.01298671108978798</v>
+        <v>0.1084498307883914</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1627,26 +1624,26 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D33">
-        <v>4278629.23314194</v>
+        <v>37136.44818165</v>
       </c>
       <c r="E33">
-        <v>62272.49059559949</v>
+        <v>5412.057358120834</v>
       </c>
       <c r="F33">
-        <v>4155830.587785092</v>
+        <v>26464.10625643777</v>
       </c>
       <c r="G33">
-        <v>4401427.878498788</v>
+        <v>47808.79010686222</v>
       </c>
       <c r="H33">
-        <v>3877863084.979027</v>
+        <v>29290364.84758986</v>
       </c>
       <c r="I33">
-        <v>0.01455430868214555</v>
+        <v>0.1457343828803493</v>
       </c>
     </row>
     <row r="34">
@@ -1660,26 +1657,26 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D34">
-        <v>1289356.21046276</v>
+        <v>29640.10872585</v>
       </c>
       <c r="E34">
-        <v>36857.2907358626</v>
+        <v>4161.225262392742</v>
       </c>
       <c r="F34">
-        <v>1216675.234792786</v>
+        <v>21434.35333756892</v>
       </c>
       <c r="G34">
-        <v>1362037.186132734</v>
+        <v>37845.86411413108</v>
       </c>
       <c r="H34">
-        <v>1358459880.387903</v>
+        <v>17315795.68437554</v>
       </c>
       <c r="I34">
-        <v>0.02858580928743829</v>
+        <v>0.1403917003436501</v>
       </c>
     </row>
     <row r="35">
@@ -1693,26 +1690,26 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D35">
-        <v>1274827.88373152</v>
+        <v>26787.04623025</v>
       </c>
       <c r="E35">
-        <v>41653.21652997925</v>
+        <v>4251.448461602625</v>
       </c>
       <c r="F35">
-        <v>1192689.550806092</v>
+        <v>18403.37461384366</v>
       </c>
       <c r="G35">
-        <v>1356966.216656948</v>
+        <v>35170.71784665633</v>
       </c>
       <c r="H35">
-        <v>1734990447.293336</v>
+        <v>18074814.02166332</v>
       </c>
       <c r="I35">
-        <v>0.03267360014754074</v>
+        <v>0.1587128504225136</v>
       </c>
     </row>
     <row r="36">
@@ -1726,31 +1723,31 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D36">
-        <v>1280100.13384101</v>
+        <v>41311.06362832</v>
       </c>
       <c r="E36">
-        <v>39531.22566964728</v>
+        <v>7309.460712571234</v>
       </c>
       <c r="F36">
-        <v>1202146.274679456</v>
+        <v>26897.12474121408</v>
       </c>
       <c r="G36">
-        <v>1358053.993002564</v>
+        <v>55725.00251542592</v>
       </c>
       <c r="H36">
-        <v>1562717802.94458</v>
+        <v>53428215.90862237</v>
       </c>
       <c r="I36">
-        <v>0.03088135421955756</v>
+        <v>0.1769371221795503</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1759,26 +1756,26 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D37">
-        <v>1272824.91521962</v>
+        <v>9034.29032434</v>
       </c>
       <c r="E37">
-        <v>35439.25659290187</v>
+        <v>2585.851807971039</v>
       </c>
       <c r="F37">
-        <v>1202940.24125783</v>
+        <v>3935.102929146284</v>
       </c>
       <c r="G37">
-        <v>1342709.58918141</v>
+        <v>14133.47771953372</v>
       </c>
       <c r="H37">
-        <v>1255940907.857538</v>
+        <v>6686629.572787093</v>
       </c>
       <c r="I37">
-        <v>0.02784299409065778</v>
+        <v>0.2862263349014023</v>
       </c>
     </row>
     <row r="38">
@@ -1792,26 +1789,26 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D38">
-        <v>1316182.33378847</v>
+        <v>10398.56373992</v>
       </c>
       <c r="E38">
-        <v>41635.97554706245</v>
+        <v>2839.639297067948</v>
       </c>
       <c r="F38">
-        <v>1234077.999332134</v>
+        <v>4798.918444752417</v>
       </c>
       <c r="G38">
-        <v>1398286.668244806</v>
+        <v>15998.20903508758</v>
       </c>
       <c r="H38">
-        <v>1733554459.755582</v>
+        <v>8063551.337452548</v>
       </c>
       <c r="I38">
-        <v>0.03163389636694058</v>
+        <v>0.273079952971447</v>
       </c>
     </row>
     <row r="39">
@@ -1825,26 +1822,26 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D39">
-        <v>1291794.91495245</v>
+        <v>9258.76262218</v>
       </c>
       <c r="E39">
-        <v>38717.2162227463</v>
+        <v>2673.988475906926</v>
       </c>
       <c r="F39">
-        <v>1215446.247046795</v>
+        <v>3985.773547861569</v>
       </c>
       <c r="G39">
-        <v>1368143.582858105</v>
+        <v>14531.75169649843</v>
       </c>
       <c r="H39">
-        <v>1499022832.03889</v>
+        <v>7150214.369283048</v>
       </c>
       <c r="I39">
-        <v>0.02997164315681755</v>
+        <v>0.2888062460421227</v>
       </c>
     </row>
     <row r="40">
@@ -1858,31 +1855,31 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D40">
-        <v>1340508.16245442</v>
+        <v>5320.94692565</v>
       </c>
       <c r="E40">
-        <v>39412.90479410359</v>
+        <v>1599.708278950832</v>
       </c>
       <c r="F40">
-        <v>1262787.626917716</v>
+        <v>2166.3917160792</v>
       </c>
       <c r="G40">
-        <v>1418228.697991124</v>
+        <v>8475.502135220799</v>
       </c>
       <c r="H40">
-        <v>1553377064.309074</v>
+        <v>2559066.577743832</v>
       </c>
       <c r="I40">
-        <v>0.02940146572620643</v>
+        <v>0.3006435323080042</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1891,26 +1888,26 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D41">
-        <v>1334141.0561697</v>
+        <v>8863.269056560001</v>
       </c>
       <c r="E41">
-        <v>39242.89312073078</v>
+        <v>2190.199728360762</v>
       </c>
       <c r="F41">
-        <v>1256755.776264903</v>
+        <v>4544.290369000586</v>
       </c>
       <c r="G41">
-        <v>1411526.336074497</v>
+        <v>13182.24774411942</v>
       </c>
       <c r="H41">
-        <v>1540004660.485099</v>
+        <v>4796974.850111556</v>
       </c>
       <c r="I41">
-        <v>0.02941435085836917</v>
+        <v>0.2471096967026768</v>
       </c>
     </row>
     <row r="42">
@@ -1924,26 +1921,26 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D42">
-        <v>528073.42457587</v>
+        <v>10303.67058131</v>
       </c>
       <c r="E42">
-        <v>25395.22936922158</v>
+        <v>3025.820474210822</v>
       </c>
       <c r="F42">
-        <v>477995.1358284593</v>
+        <v>4336.88409545903</v>
       </c>
       <c r="G42">
-        <v>578151.7133232808</v>
+        <v>16270.45706716097</v>
       </c>
       <c r="H42">
-        <v>644917674.7153742</v>
+        <v>9155589.542153405</v>
       </c>
       <c r="I42">
-        <v>0.04809033779652542</v>
+        <v>0.2936643257694407</v>
       </c>
     </row>
     <row r="43">
@@ -1957,26 +1954,26 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D43">
-        <v>521229.1130976</v>
+        <v>11519.0930229</v>
       </c>
       <c r="E43">
-        <v>21501.82574049231</v>
+        <v>2549.716525727802</v>
       </c>
       <c r="F43">
-        <v>478828.4471152754</v>
+        <v>6491.162834004221</v>
       </c>
       <c r="G43">
-        <v>563629.7790799246</v>
+        <v>16547.02321179578</v>
       </c>
       <c r="H43">
-        <v>462328510.1744978</v>
+        <v>6501054.361569453</v>
       </c>
       <c r="I43">
-        <v>0.04125215802453863</v>
+        <v>0.2213469863173217</v>
       </c>
     </row>
     <row r="44">
@@ -1990,31 +1987,31 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D44">
-        <v>541995.52341502</v>
+        <v>15326.23430055</v>
       </c>
       <c r="E44">
-        <v>20909.48086699414</v>
+        <v>4386.811495929889</v>
       </c>
       <c r="F44">
-        <v>500762.9357824441</v>
+        <v>6675.632662752238</v>
       </c>
       <c r="G44">
-        <v>583228.1110475959</v>
+        <v>23976.83593834777</v>
       </c>
       <c r="H44">
-        <v>437206390.1271942</v>
+        <v>19244115.10082263</v>
       </c>
       <c r="I44">
-        <v>0.03857869661957192</v>
+        <v>0.2862289202881665</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2023,26 +2020,26 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D45">
-        <v>611249.12715816</v>
+        <v>1038108.93753433</v>
       </c>
       <c r="E45">
-        <v>23787.36802258977</v>
+        <v>31875.84332316367</v>
       </c>
       <c r="F45">
-        <v>564341.4711154893</v>
+        <v>975251.1596896738</v>
       </c>
       <c r="G45">
-        <v>658156.7832008307</v>
+        <v>1100966.715378986</v>
       </c>
       <c r="H45">
-        <v>565838877.4421265</v>
+        <v>1016069387.562878</v>
       </c>
       <c r="I45">
-        <v>0.03891599507582581</v>
+        <v>0.03070568239097696</v>
       </c>
     </row>
     <row r="46">
@@ -2056,26 +2053,26 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D46">
-        <v>25284945.75817546</v>
+        <v>1034704.83058556</v>
       </c>
       <c r="E46">
-        <v>139237.1203026601</v>
+        <v>32177.17413775508</v>
       </c>
       <c r="F46">
-        <v>25010376.20759186</v>
+        <v>971252.8414690855</v>
       </c>
       <c r="G46">
-        <v>25559515.30875906</v>
+        <v>1098156.819702034</v>
       </c>
       <c r="H46">
-        <v>19386975670.17745</v>
+        <v>1035370535.491414</v>
       </c>
       <c r="I46">
-        <v>0.005506720150176322</v>
+        <v>0.03109792588824136</v>
       </c>
     </row>
     <row r="47">
@@ -2089,26 +2086,26 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D47">
-        <v>25756939.06983051</v>
+        <v>1161338.02786061</v>
       </c>
       <c r="E47">
-        <v>145127.8474444682</v>
+        <v>34401.12723342602</v>
       </c>
       <c r="F47">
-        <v>25470753.26130922</v>
+        <v>1093500.499883018</v>
       </c>
       <c r="G47">
-        <v>26043124.8783518</v>
+        <v>1229175.555838202</v>
       </c>
       <c r="H47">
-        <v>21062092103.86484</v>
+        <v>1183437554.930366</v>
       </c>
       <c r="I47">
-        <v>0.005634514530278897</v>
+        <v>0.02962197603810406</v>
       </c>
     </row>
     <row r="48">
@@ -2122,31 +2119,31 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D48">
-        <v>26254390.47010665</v>
+        <v>1121505.31326336</v>
       </c>
       <c r="E48">
-        <v>140305.9767601401</v>
+        <v>34718.03399637983</v>
       </c>
       <c r="F48">
-        <v>25977713.18103686</v>
+        <v>1053042.858920644</v>
       </c>
       <c r="G48">
-        <v>26531067.75917644</v>
+        <v>1189967.767606076</v>
       </c>
       <c r="H48">
-        <v>19685767114.61697</v>
+        <v>1205341884.573786</v>
       </c>
       <c r="I48">
-        <v>0.005344095758760539</v>
+        <v>0.03095663799876006</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2155,26 +2152,26 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D49">
-        <v>26266087.93095852</v>
+        <v>564550.71225407</v>
       </c>
       <c r="E49">
-        <v>158320.2785088646</v>
+        <v>20453.12594328353</v>
       </c>
       <c r="F49">
-        <v>25953887.2216652</v>
+        <v>524218.0366998067</v>
       </c>
       <c r="G49">
-        <v>26578288.64025184</v>
+        <v>604883.3878083333</v>
       </c>
       <c r="H49">
-        <v>25065310587.12445</v>
+        <v>418330360.8518177</v>
       </c>
       <c r="I49">
-        <v>0.006027554576266396</v>
+        <v>0.03622903221859513</v>
       </c>
     </row>
     <row r="50">
@@ -2188,26 +2185,26 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D50">
-        <v>9974888.66844538</v>
+        <v>571242.6546482</v>
       </c>
       <c r="E50">
-        <v>101124.8710811986</v>
+        <v>18836.04511913427</v>
       </c>
       <c r="F50">
-        <v>9775474.817130197</v>
+        <v>534098.7922077019</v>
       </c>
       <c r="G50">
-        <v>10174302.51976056</v>
+        <v>608386.5170886981</v>
       </c>
       <c r="H50">
-        <v>10226239551.18903</v>
+        <v>354796595.7300618</v>
       </c>
       <c r="I50">
-        <v>0.01013794483752962</v>
+        <v>0.032973807130587</v>
       </c>
     </row>
     <row r="51">
@@ -2221,26 +2218,26 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D51">
-        <v>10212939.09545956</v>
+        <v>583467.91790715</v>
       </c>
       <c r="E51">
-        <v>94907.30532124478</v>
+        <v>22526.47785663507</v>
       </c>
       <c r="F51">
-        <v>10025786.01363403</v>
+        <v>539046.6824788162</v>
       </c>
       <c r="G51">
-        <v>10400092.17728509</v>
+        <v>627889.1533354837</v>
       </c>
       <c r="H51">
-        <v>9007396603.339979</v>
+        <v>507442204.6254702</v>
       </c>
       <c r="I51">
-        <v>0.009292849436793215</v>
+        <v>0.03860791170392991</v>
       </c>
     </row>
     <row r="52">
@@ -2254,179 +2251,26 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D52">
-        <v>10317632.69093122</v>
+        <v>618310.57539755</v>
       </c>
       <c r="E52">
-        <v>93704.33118764362</v>
+        <v>20607.09696534306</v>
       </c>
       <c r="F52">
-        <v>10132851.82182101</v>
+        <v>577674.2756787114</v>
       </c>
       <c r="G52">
-        <v>10502413.56004143</v>
+        <v>658946.8751163887</v>
       </c>
       <c r="H52">
-        <v>8780501683.323601</v>
+        <v>424652445.3390511</v>
       </c>
       <c r="I52">
-        <v>0.009081960367711667</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>10287004.70992134</v>
-      </c>
-      <c r="E53">
-        <v>98817.43710742547</v>
-      </c>
-      <c r="F53">
-        <v>10092141.01813117</v>
-      </c>
-      <c r="G53">
-        <v>10481868.40171151</v>
-      </c>
-      <c r="H53">
-        <v>9764885876.479988</v>
-      </c>
-      <c r="I53">
-        <v>0.009606045675484199</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>108871712.2612191</v>
-      </c>
-      <c r="E54">
-        <v>177250.4599473925</v>
-      </c>
-      <c r="F54">
-        <v>108522182.0567542</v>
-      </c>
-      <c r="G54">
-        <v>109221242.465684</v>
-      </c>
-      <c r="H54">
-        <v>31417725551.5622</v>
-      </c>
-      <c r="I54">
-        <v>0.001628067165161418</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>108612012.3875419</v>
-      </c>
-      <c r="E55">
-        <v>165735.1639805884</v>
-      </c>
-      <c r="F55">
-        <v>108285189.8463177</v>
-      </c>
-      <c r="G55">
-        <v>108938834.928766</v>
-      </c>
-      <c r="H55">
-        <v>27468144579.67254</v>
-      </c>
-      <c r="I55">
-        <v>0.001525937696368461</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>108730847.5014996</v>
-      </c>
-      <c r="E56">
-        <v>156091.9617487288</v>
-      </c>
-      <c r="F56">
-        <v>108423040.9360241</v>
-      </c>
-      <c r="G56">
-        <v>109038654.0669751</v>
-      </c>
-      <c r="H56">
-        <v>24364700522.5666</v>
-      </c>
-      <c r="I56">
-        <v>0.001435581211179063</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>108587406.0229332</v>
-      </c>
-      <c r="E57">
-        <v>178311.9804058451</v>
-      </c>
-      <c r="F57">
-        <v>108235782.5462534</v>
-      </c>
-      <c r="G57">
-        <v>108939029.499613</v>
-      </c>
-      <c r="H57">
-        <v>31795162356.25449</v>
-      </c>
-      <c r="I57">
-        <v>0.001642105534486996</v>
+        <v>0.03332806810249604</v>
       </c>
     </row>
   </sheetData>
@@ -2435,3798 +2279,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_PR</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>somaH</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>223709218.022663</v>
-      </c>
-      <c r="E2">
-        <v>42190088.55149426</v>
-      </c>
-      <c r="F2">
-        <v>140512196.800983</v>
-      </c>
-      <c r="G2">
-        <v>306906239.244343</v>
-      </c>
-      <c r="H2">
-        <v>1780003571982927</v>
-      </c>
-      <c r="I2">
-        <v>0.1885934291148439</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>202614676.8110548</v>
-      </c>
-      <c r="E3">
-        <v>37808627.95369145</v>
-      </c>
-      <c r="F3">
-        <v>128057705.4885932</v>
-      </c>
-      <c r="G3">
-        <v>277171648.1335164</v>
-      </c>
-      <c r="H3">
-        <v>1429492347740659</v>
-      </c>
-      <c r="I3">
-        <v>0.1866035992493738</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>176075091.4487504</v>
-      </c>
-      <c r="E4">
-        <v>38676171.25392737</v>
-      </c>
-      <c r="F4">
-        <v>99807362.43796684</v>
-      </c>
-      <c r="G4">
-        <v>252342820.459534</v>
-      </c>
-      <c r="H4">
-        <v>1495846222863118</v>
-      </c>
-      <c r="I4">
-        <v>0.2196572549569552</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>224198570.9671183</v>
-      </c>
-      <c r="E5">
-        <v>41922560.61183918</v>
-      </c>
-      <c r="F5">
-        <v>141529103.2168113</v>
-      </c>
-      <c r="G5">
-        <v>306868038.7174253</v>
-      </c>
-      <c r="H5">
-        <v>1757501088253330</v>
-      </c>
-      <c r="I5">
-        <v>0.1869885273175433</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>67791740221908.55</v>
-      </c>
-      <c r="E6">
-        <v>729879538433.9741</v>
-      </c>
-      <c r="F6">
-        <v>66352449489578.23</v>
-      </c>
-      <c r="G6">
-        <v>69231030954238.88</v>
-      </c>
-      <c r="H6">
-        <v>5.327241406245911E+23</v>
-      </c>
-      <c r="I6">
-        <v>0.01076649656794171</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>68575851746905.64</v>
-      </c>
-      <c r="E7">
-        <v>809490671267.1372</v>
-      </c>
-      <c r="F7">
-        <v>66979571320189.66</v>
-      </c>
-      <c r="G7">
-        <v>70172132173621.62</v>
-      </c>
-      <c r="H7">
-        <v>6.552751468685204E+23</v>
-      </c>
-      <c r="I7">
-        <v>0.01180431085646215</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>67247264399361.38</v>
-      </c>
-      <c r="E8">
-        <v>866192999881.8832</v>
-      </c>
-      <c r="F8">
-        <v>65539169444659.24</v>
-      </c>
-      <c r="G8">
-        <v>68955359354063.51</v>
-      </c>
-      <c r="H8">
-        <v>7.50290313044376E+23</v>
-      </c>
-      <c r="I8">
-        <v>0.01288071726959512</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>65912523000740.55</v>
-      </c>
-      <c r="E9">
-        <v>832683866524.3842</v>
-      </c>
-      <c r="F9">
-        <v>64270506600854.94</v>
-      </c>
-      <c r="G9">
-        <v>67554539400626.16</v>
-      </c>
-      <c r="H9">
-        <v>6.933624215699984E+23</v>
-      </c>
-      <c r="I9">
-        <v>0.01263316633342997</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>130590855412.6582</v>
-      </c>
-      <c r="E10">
-        <v>6051904394.618411</v>
-      </c>
-      <c r="F10">
-        <v>118656762936.5044</v>
-      </c>
-      <c r="G10">
-        <v>142524947888.8119</v>
-      </c>
-      <c r="H10">
-        <v>3.662554680160164E+19</v>
-      </c>
-      <c r="I10">
-        <v>0.04634248221665144</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>136230219412.5045</v>
-      </c>
-      <c r="E11">
-        <v>6644254138.732426</v>
-      </c>
-      <c r="F11">
-        <v>123128038981.9593</v>
-      </c>
-      <c r="G11">
-        <v>149332399843.0497</v>
-      </c>
-      <c r="H11">
-        <v>4.414611306006297E+19</v>
-      </c>
-      <c r="I11">
-        <v>0.04877224867864048</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>126951213500.1908</v>
-      </c>
-      <c r="E12">
-        <v>6373745965.627673</v>
-      </c>
-      <c r="F12">
-        <v>114382463431.8731</v>
-      </c>
-      <c r="G12">
-        <v>139519963568.5085</v>
-      </c>
-      <c r="H12">
-        <v>4.062463763435504E+19</v>
-      </c>
-      <c r="I12">
-        <v>0.05020626262558801</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>126691299955.8936</v>
-      </c>
-      <c r="E13">
-        <v>5853757953.584693</v>
-      </c>
-      <c r="F13">
-        <v>115147943650.8565</v>
-      </c>
-      <c r="G13">
-        <v>138234656260.9306</v>
-      </c>
-      <c r="H13">
-        <v>3.426648217915605E+19</v>
-      </c>
-      <c r="I13">
-        <v>0.04620489296125801</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>53441858852775.84</v>
-      </c>
-      <c r="E14">
-        <v>544467817048.9091</v>
-      </c>
-      <c r="F14">
-        <v>52368191977811.77</v>
-      </c>
-      <c r="G14">
-        <v>54515525727739.9</v>
-      </c>
-      <c r="H14">
-        <v>2.964452038020043E+23</v>
-      </c>
-      <c r="I14">
-        <v>0.01018804040010724</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>54194344021544.43</v>
-      </c>
-      <c r="E15">
-        <v>593518822201.9995</v>
-      </c>
-      <c r="F15">
-        <v>53023950695966.6</v>
-      </c>
-      <c r="G15">
-        <v>55364737347122.26</v>
-      </c>
-      <c r="H15">
-        <v>3.522645923080487E+23</v>
-      </c>
-      <c r="I15">
-        <v>0.01095167462431231</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>55499642503021.88</v>
-      </c>
-      <c r="E16">
-        <v>616213747902.0844</v>
-      </c>
-      <c r="F16">
-        <v>54284495770188.46</v>
-      </c>
-      <c r="G16">
-        <v>56714789235855.29</v>
-      </c>
-      <c r="H16">
-        <v>3.797193831035336E+23</v>
-      </c>
-      <c r="I16">
-        <v>0.01110302193151122</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>55764012587391.42</v>
-      </c>
-      <c r="E17">
-        <v>603720266415.1016</v>
-      </c>
-      <c r="F17">
-        <v>54573502457136.75</v>
-      </c>
-      <c r="G17">
-        <v>56954522717646.09</v>
-      </c>
-      <c r="H17">
-        <v>3.644781600803212E+23</v>
-      </c>
-      <c r="I17">
-        <v>0.01082634190767697</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>383858140556.5309</v>
-      </c>
-      <c r="E18">
-        <v>11501152666.37064</v>
-      </c>
-      <c r="F18">
-        <v>361178367289.6428</v>
-      </c>
-      <c r="G18">
-        <v>406537913823.4189</v>
-      </c>
-      <c r="H18">
-        <v>1.322765126551644E+20</v>
-      </c>
-      <c r="I18">
-        <v>0.02996198712809859</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>366059657736.6827</v>
-      </c>
-      <c r="E19">
-        <v>11079820921.40552</v>
-      </c>
-      <c r="F19">
-        <v>344210732361.5796</v>
-      </c>
-      <c r="G19">
-        <v>387908583111.7858</v>
-      </c>
-      <c r="H19">
-        <v>1.227624316504154E+20</v>
-      </c>
-      <c r="I19">
-        <v>0.03026780112813074</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>367445067192.5388</v>
-      </c>
-      <c r="E20">
-        <v>11832821031.42554</v>
-      </c>
-      <c r="F20">
-        <v>344111258322.6595</v>
-      </c>
-      <c r="G20">
-        <v>390778876062.4182</v>
-      </c>
-      <c r="H20">
-        <v>1.400156535617466E+20</v>
-      </c>
-      <c r="I20">
-        <v>0.03220296607009618</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>357410653244.7298</v>
-      </c>
-      <c r="E21">
-        <v>11600971874.01674</v>
-      </c>
-      <c r="F21">
-        <v>334534040838.082</v>
-      </c>
-      <c r="G21">
-        <v>380287265651.3776</v>
-      </c>
-      <c r="H21">
-        <v>1.345825484217275E+20</v>
-      </c>
-      <c r="I21">
-        <v>0.0324583830076078</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>28027460053959.3</v>
-      </c>
-      <c r="E22">
-        <v>294208594156.9863</v>
-      </c>
-      <c r="F22">
-        <v>27447293491336.33</v>
-      </c>
-      <c r="G22">
-        <v>28607626616582.28</v>
-      </c>
-      <c r="H22">
-        <v>8.655869687583029E+22</v>
-      </c>
-      <c r="I22">
-        <v>0.01049715506116384</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>27167258539973.79</v>
-      </c>
-      <c r="E23">
-        <v>338430446265.866</v>
-      </c>
-      <c r="F23">
-        <v>26499888406685.77</v>
-      </c>
-      <c r="G23">
-        <v>27834628673261.8</v>
-      </c>
-      <c r="H23">
-        <v>1.145351669597132E+23</v>
-      </c>
-      <c r="I23">
-        <v>0.01245729103537999</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>26440952180915.66</v>
-      </c>
-      <c r="E24">
-        <v>290422697368.0917</v>
-      </c>
-      <c r="F24">
-        <v>25868251242241.41</v>
-      </c>
-      <c r="G24">
-        <v>27013653119589.92</v>
-      </c>
-      <c r="H24">
-        <v>8.434534314655816E+22</v>
-      </c>
-      <c r="I24">
-        <v>0.01098382143657105</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>27108881403255.53</v>
-      </c>
-      <c r="E25">
-        <v>345174584488.9992</v>
-      </c>
-      <c r="F25">
-        <v>26428212122463.07</v>
-      </c>
-      <c r="G25">
-        <v>27789550684047.99</v>
-      </c>
-      <c r="H25">
-        <v>1.191454937771533E+23</v>
-      </c>
-      <c r="I25">
-        <v>0.01273289662359683</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>138198158892059.8</v>
-      </c>
-      <c r="E26">
-        <v>889832089295.9045</v>
-      </c>
-      <c r="F26">
-        <v>136443448680287.5</v>
-      </c>
-      <c r="G26">
-        <v>139952869103832.1</v>
-      </c>
-      <c r="H26">
-        <v>7.918011471407146E+23</v>
-      </c>
-      <c r="I26">
-        <v>0.006438812907709656</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>137318855009105.9</v>
-      </c>
-      <c r="E27">
-        <v>1008675109733.183</v>
-      </c>
-      <c r="F27">
-        <v>135329791525443.7</v>
-      </c>
-      <c r="G27">
-        <v>139307918492768.1</v>
-      </c>
-      <c r="H27">
-        <v>1.017425476995248E+24</v>
-      </c>
-      <c r="I27">
-        <v>0.007345496069467628</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>135983075016362.6</v>
-      </c>
-      <c r="E28">
-        <v>964432046240.3783</v>
-      </c>
-      <c r="F28">
-        <v>134081256931292.8</v>
-      </c>
-      <c r="G28">
-        <v>137884893101432.4</v>
-      </c>
-      <c r="H28">
-        <v>9.301291718154032E+23</v>
-      </c>
-      <c r="I28">
-        <v>0.00709229472950461</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>138363407399949</v>
-      </c>
-      <c r="E29">
-        <v>901040606715.6016</v>
-      </c>
-      <c r="F29">
-        <v>136586594478899.6</v>
-      </c>
-      <c r="G29">
-        <v>140140220320998.4</v>
-      </c>
-      <c r="H29">
-        <v>8.118741749504194E+23</v>
-      </c>
-      <c r="I29">
-        <v>0.00651213079850716</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>7807652968893.088</v>
-      </c>
-      <c r="E30">
-        <v>109525279798.2713</v>
-      </c>
-      <c r="F30">
-        <v>7591673876633.883</v>
-      </c>
-      <c r="G30">
-        <v>8023632061152.293</v>
-      </c>
-      <c r="H30">
-        <v>1.199578691488961E+22</v>
-      </c>
-      <c r="I30">
-        <v>0.01402793902785346</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>7949151888762.915</v>
-      </c>
-      <c r="E31">
-        <v>118948872418.0575</v>
-      </c>
-      <c r="F31">
-        <v>7714589881366.76</v>
-      </c>
-      <c r="G31">
-        <v>8183713896159.07</v>
-      </c>
-      <c r="H31">
-        <v>1.414883424952732E+22</v>
-      </c>
-      <c r="I31">
-        <v>0.01496371865610042</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>7753724091377.078</v>
-      </c>
-      <c r="E32">
-        <v>100695374644.6429</v>
-      </c>
-      <c r="F32">
-        <v>7555157188370.692</v>
-      </c>
-      <c r="G32">
-        <v>7952290994383.464</v>
-      </c>
-      <c r="H32">
-        <v>1.0139558474825E+22</v>
-      </c>
-      <c r="I32">
-        <v>0.01298671108978798</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>7993454934974.301</v>
-      </c>
-      <c r="E33">
-        <v>116339210560.4357</v>
-      </c>
-      <c r="F33">
-        <v>7764039067356.567</v>
-      </c>
-      <c r="G33">
-        <v>8222870802592.034</v>
-      </c>
-      <c r="H33">
-        <v>1.353481191382538E+22</v>
-      </c>
-      <c r="I33">
-        <v>0.01455430868214555</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>549522327543.0178</v>
-      </c>
-      <c r="E34">
-        <v>15708540454.33391</v>
-      </c>
-      <c r="F34">
-        <v>518545768393.4507</v>
-      </c>
-      <c r="G34">
-        <v>580498886692.585</v>
-      </c>
-      <c r="H34">
-        <v>2.467582432054449E+20</v>
-      </c>
-      <c r="I34">
-        <v>0.02858580928743829</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>543330369218.4901</v>
-      </c>
-      <c r="E35">
-        <v>17752559231.86062</v>
-      </c>
-      <c r="F35">
-        <v>508323093864.0057</v>
-      </c>
-      <c r="G35">
-        <v>578337644572.9745</v>
-      </c>
-      <c r="H35">
-        <v>3.151533592807197E+20</v>
-      </c>
-      <c r="I35">
-        <v>0.03267360014754073</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>545577396942.9046</v>
-      </c>
-      <c r="E36">
-        <v>16848168849.178</v>
-      </c>
-      <c r="F36">
-        <v>512353540122.1096</v>
-      </c>
-      <c r="G36">
-        <v>578801253763.6997</v>
-      </c>
-      <c r="H36">
-        <v>2.838607935704118E+20</v>
-      </c>
-      <c r="I36">
-        <v>0.03088135421955756</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>542476706041.6868</v>
-      </c>
-      <c r="E37">
-        <v>15104175720.63818</v>
-      </c>
-      <c r="F37">
-        <v>512691927883.8459</v>
-      </c>
-      <c r="G37">
-        <v>572261484199.5277</v>
-      </c>
-      <c r="H37">
-        <v>2.28136124199916E+20</v>
-      </c>
-      <c r="I37">
-        <v>0.02784299409065778</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>541905171379.0578</v>
-      </c>
-      <c r="E38">
-        <v>17142572032.11428</v>
-      </c>
-      <c r="F38">
-        <v>508100764275.023</v>
-      </c>
-      <c r="G38">
-        <v>575709578483.0927</v>
-      </c>
-      <c r="H38">
-        <v>2.938677758762269E+20</v>
-      </c>
-      <c r="I38">
-        <v>0.03163389636694057</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>531864261358.7975</v>
-      </c>
-      <c r="E39">
-        <v>15940845849.31023</v>
-      </c>
-      <c r="F39">
-        <v>500429606065.3418</v>
-      </c>
-      <c r="G39">
-        <v>563298916652.2532</v>
-      </c>
-      <c r="H39">
-        <v>2.541105663914711E+20</v>
-      </c>
-      <c r="I39">
-        <v>0.02997164315681755</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>551920723186.546</v>
-      </c>
-      <c r="E40">
-        <v>16227278226.3523</v>
-      </c>
-      <c r="F40">
-        <v>519921235692.6967</v>
-      </c>
-      <c r="G40">
-        <v>583920210680.3954</v>
-      </c>
-      <c r="H40">
-        <v>2.633245586354475E+20</v>
-      </c>
-      <c r="I40">
-        <v>0.02940146572620644</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>549299226351.4697</v>
-      </c>
-      <c r="E41">
-        <v>16157280170.13288</v>
-      </c>
-      <c r="F41">
-        <v>517437771982.6671</v>
-      </c>
-      <c r="G41">
-        <v>581160680720.2723</v>
-      </c>
-      <c r="H41">
-        <v>2.610577024961692E+20</v>
-      </c>
-      <c r="I41">
-        <v>0.02941435085836918</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>106727863694.1799</v>
-      </c>
-      <c r="E42">
-        <v>5132579017.354634</v>
-      </c>
-      <c r="F42">
-        <v>96606640912.01823</v>
-      </c>
-      <c r="G42">
-        <v>116849086476.3416</v>
-      </c>
-      <c r="H42">
-        <v>2.634336736938906E+19</v>
-      </c>
-      <c r="I42">
-        <v>0.04809033779652542</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>105344573589.9297</v>
-      </c>
-      <c r="E43">
-        <v>4345690996.75942</v>
-      </c>
-      <c r="F43">
-        <v>96775059789.57408</v>
-      </c>
-      <c r="G43">
-        <v>113914087390.2854</v>
-      </c>
-      <c r="H43">
-        <v>1.888503023931589E+19</v>
-      </c>
-      <c r="I43">
-        <v>0.04125215802453863</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>109541631246.3629</v>
-      </c>
-      <c r="E44">
-        <v>4225973359.066453</v>
-      </c>
-      <c r="F44">
-        <v>101208195425.1182</v>
-      </c>
-      <c r="G44">
-        <v>117875067067.6075</v>
-      </c>
-      <c r="H44">
-        <v>1.78588508315394E+19</v>
-      </c>
-      <c r="I44">
-        <v>0.03857869661957192</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>123538338591.6814</v>
-      </c>
-      <c r="E45">
-        <v>4807617376.309574</v>
-      </c>
-      <c r="F45">
-        <v>114057926044.2093</v>
-      </c>
-      <c r="G45">
-        <v>133018751139.1535</v>
-      </c>
-      <c r="H45">
-        <v>2.311318483699375E+19</v>
-      </c>
-      <c r="I45">
-        <v>0.03891599507582581</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>257406184081564.2</v>
-      </c>
-      <c r="E46">
-        <v>1417463820661.944</v>
-      </c>
-      <c r="F46">
-        <v>254611007024169.8</v>
-      </c>
-      <c r="G46">
-        <v>260201361138958.6</v>
-      </c>
-      <c r="H46">
-        <v>2.009203682885556E+24</v>
-      </c>
-      <c r="I46">
-        <v>0.005506720150176318</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>262211177472774.6</v>
-      </c>
-      <c r="E47">
-        <v>1477432689471.885</v>
-      </c>
-      <c r="F47">
-        <v>259297744412079</v>
-      </c>
-      <c r="G47">
-        <v>265124610533470.2</v>
-      </c>
-      <c r="H47">
-        <v>2.182807351920127E+24</v>
-      </c>
-      <c r="I47">
-        <v>0.005634514530278889</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>267275339679636.8</v>
-      </c>
-      <c r="E48">
-        <v>1428345009203.229</v>
-      </c>
-      <c r="F48">
-        <v>264458705391289.2</v>
-      </c>
-      <c r="G48">
-        <v>270091973967984.4</v>
-      </c>
-      <c r="H48">
-        <v>2.040169465315771E+24</v>
-      </c>
-      <c r="I48">
-        <v>0.005344095758760536</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>267394422346062.9</v>
-      </c>
-      <c r="E49">
-        <v>1611734474080.121</v>
-      </c>
-      <c r="F49">
-        <v>264216152002304.4</v>
-      </c>
-      <c r="G49">
-        <v>270572692689821.3</v>
-      </c>
-      <c r="H49">
-        <v>2.597688014938325E+24</v>
-      </c>
-      <c r="I49">
-        <v>0.006027554576266398</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>47774230533085.73</v>
-      </c>
-      <c r="E50">
-        <v>484332513799.8466</v>
-      </c>
-      <c r="F50">
-        <v>46819147862904.22</v>
-      </c>
-      <c r="G50">
-        <v>48729313203267.23</v>
-      </c>
-      <c r="H50">
-        <v>2.345779839236786E+23</v>
-      </c>
-      <c r="I50">
-        <v>0.01013794483752962</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>48914361150748.79</v>
-      </c>
-      <c r="E51">
-        <v>454553793470.836</v>
-      </c>
-      <c r="F51">
-        <v>48018000822999.52</v>
-      </c>
-      <c r="G51">
-        <v>49810721478498.06</v>
-      </c>
-      <c r="H51">
-        <v>2.066191511587274E+23</v>
-      </c>
-      <c r="I51">
-        <v>0.009292849436793219</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>49415785891580.53</v>
-      </c>
-      <c r="E52">
-        <v>448792209006.6595</v>
-      </c>
-      <c r="F52">
-        <v>48530787158020.65</v>
-      </c>
-      <c r="G52">
-        <v>50300784625140.41</v>
-      </c>
-      <c r="H52">
-        <v>2.014144468650772E+23</v>
-      </c>
-      <c r="I52">
-        <v>0.009081960367711663</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>49269094707932.76</v>
-      </c>
-      <c r="E53">
-        <v>473281174154.1591</v>
-      </c>
-      <c r="F53">
-        <v>48335804799288.31</v>
-      </c>
-      <c r="G53">
-        <v>50202384616577.2</v>
-      </c>
-      <c r="H53">
-        <v>2.239950698087395E+23</v>
-      </c>
-      <c r="I53">
-        <v>0.009606045675484204</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>4181056108284274</v>
-      </c>
-      <c r="E54">
-        <v>6807040165595.206</v>
-      </c>
-      <c r="F54">
-        <v>4167632920882744</v>
-      </c>
-      <c r="G54">
-        <v>4194479295685804</v>
-      </c>
-      <c r="H54">
-        <v>4.633579581602641E+25</v>
-      </c>
-      <c r="I54">
-        <v>0.001628067165161417</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>4171082721069114</v>
-      </c>
-      <c r="E55">
-        <v>6364812358750.51</v>
-      </c>
-      <c r="F55">
-        <v>4158531587685341</v>
-      </c>
-      <c r="G55">
-        <v>4183633854452886</v>
-      </c>
-      <c r="H55">
-        <v>4.051083636210322E+25</v>
-      </c>
-      <c r="I55">
-        <v>0.001525937696368465</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>4175646406794009</v>
-      </c>
-      <c r="E56">
-        <v>5994479526120.84</v>
-      </c>
-      <c r="F56">
-        <v>4163825553663092</v>
-      </c>
-      <c r="G56">
-        <v>4187467259924926</v>
-      </c>
-      <c r="H56">
-        <v>3.593378478908193E+25</v>
-      </c>
-      <c r="I56">
-        <v>0.001435581211179062</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>4170137750250586</v>
-      </c>
-      <c r="E57">
-        <v>6847806279259.571</v>
-      </c>
-      <c r="F57">
-        <v>4156634173844432</v>
-      </c>
-      <c r="G57">
-        <v>4183641326656740</v>
-      </c>
-      <c r="H57">
-        <v>4.689245083826681E+25</v>
-      </c>
-      <c r="I57">
-        <v>0.00164210553448698</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_PR</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>somaE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>213965994.740678</v>
-      </c>
-      <c r="E2">
-        <v>40352580.66211312</v>
-      </c>
-      <c r="F2">
-        <v>134392459.2265773</v>
-      </c>
-      <c r="G2">
-        <v>293539530.2547787</v>
-      </c>
-      <c r="H2">
-        <v>1628330766092345</v>
-      </c>
-      <c r="I2">
-        <v>0.1885934291148439</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>193790185.5637726</v>
-      </c>
-      <c r="E3">
-        <v>36161946.125404</v>
-      </c>
-      <c r="F3">
-        <v>122480399.2489029</v>
-      </c>
-      <c r="G3">
-        <v>265099971.8786423</v>
-      </c>
-      <c r="H3">
-        <v>1307686347576622</v>
-      </c>
-      <c r="I3">
-        <v>0.1866035992493738</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>168406480.6264315</v>
-      </c>
-      <c r="E4">
-        <v>36991705.25136359</v>
-      </c>
-      <c r="F4">
-        <v>95460445.37297313</v>
-      </c>
-      <c r="G4">
-        <v>241352515.8798898</v>
-      </c>
-      <c r="H4">
-        <v>1368386257403761</v>
-      </c>
-      <c r="I4">
-        <v>0.2196572549569552</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>214434034.8619798</v>
-      </c>
-      <c r="E5">
-        <v>40096704.38560034</v>
-      </c>
-      <c r="F5">
-        <v>135365076.2458673</v>
-      </c>
-      <c r="G5">
-        <v>293502993.4780923</v>
-      </c>
-      <c r="H5">
-        <v>1607745702586222</v>
-      </c>
-      <c r="I5">
-        <v>0.1869885273175433</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>64637907658859.26</v>
-      </c>
-      <c r="E6">
-        <v>695923810968.0413</v>
-      </c>
-      <c r="F6">
-        <v>63265576145520.21</v>
-      </c>
-      <c r="G6">
-        <v>66010239172198.3</v>
-      </c>
-      <c r="H6">
-        <v>4.843099506722821E+23</v>
-      </c>
-      <c r="I6">
-        <v>0.01076649656794171</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>65385540455732.49</v>
-      </c>
-      <c r="E7">
-        <v>771831245057.2485</v>
-      </c>
-      <c r="F7">
-        <v>63863522780983.88</v>
-      </c>
-      <c r="G7">
-        <v>66907558130481.11</v>
-      </c>
-      <c r="H7">
-        <v>5.957234708466224E+23</v>
-      </c>
-      <c r="I7">
-        <v>0.01180431085646215</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>64118762143121.16</v>
-      </c>
-      <c r="E8">
-        <v>825895646841.9625</v>
-      </c>
-      <c r="F8">
-        <v>62490131817462.12</v>
-      </c>
-      <c r="G8">
-        <v>65747392468780.2</v>
-      </c>
-      <c r="H8">
-        <v>6.821036194725037E+23</v>
-      </c>
-      <c r="I8">
-        <v>0.01288071726959512</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>62846116080487.29</v>
-      </c>
-      <c r="E9">
-        <v>793945437854.8435</v>
-      </c>
-      <c r="F9">
-        <v>61280490178530.61</v>
-      </c>
-      <c r="G9">
-        <v>64411741982443.97</v>
-      </c>
-      <c r="H9">
-        <v>6.303493582905191E+23</v>
-      </c>
-      <c r="I9">
-        <v>0.01263316633342996</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>125404723121.659</v>
-      </c>
-      <c r="E10">
-        <v>5811566151.149581</v>
-      </c>
-      <c r="F10">
-        <v>113944567217.5476</v>
-      </c>
-      <c r="G10">
-        <v>136864879025.7704</v>
-      </c>
-      <c r="H10">
-        <v>3.377430112918755E+19</v>
-      </c>
-      <c r="I10">
-        <v>0.04634248221665144</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>130820132024.1298</v>
-      </c>
-      <c r="E11">
-        <v>6380392011.253439</v>
-      </c>
-      <c r="F11">
-        <v>118238276242.647</v>
-      </c>
-      <c r="G11">
-        <v>143401987805.6126</v>
-      </c>
-      <c r="H11">
-        <v>4.07094022172667E+19</v>
-      </c>
-      <c r="I11">
-        <v>0.0487722486786405</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>121909621685.5541</v>
-      </c>
-      <c r="E12">
-        <v>6120626482.931008</v>
-      </c>
-      <c r="F12">
-        <v>109840012237.6177</v>
-      </c>
-      <c r="G12">
-        <v>133979231133.4905</v>
-      </c>
-      <c r="H12">
-        <v>3.74620685435564E+19</v>
-      </c>
-      <c r="I12">
-        <v>0.05020626262558802</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>121660030043.3585</v>
-      </c>
-      <c r="E13">
-        <v>5621288665.816813</v>
-      </c>
-      <c r="F13">
-        <v>110575093071.6729</v>
-      </c>
-      <c r="G13">
-        <v>132744967015.0442</v>
-      </c>
-      <c r="H13">
-        <v>3.159888626444057E+19</v>
-      </c>
-      <c r="I13">
-        <v>0.046204892961258</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>51606339785878.76</v>
-      </c>
-      <c r="E14">
-        <v>525767474640.1946</v>
-      </c>
-      <c r="F14">
-        <v>50569549173507.31</v>
-      </c>
-      <c r="G14">
-        <v>52643130398250.2</v>
-      </c>
-      <c r="H14">
-        <v>2.764314373895277E+23</v>
-      </c>
-      <c r="I14">
-        <v>0.01018804040010724</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>52332980028881.63</v>
-      </c>
-      <c r="E15">
-        <v>573133769396.9456</v>
-      </c>
-      <c r="F15">
-        <v>51202785141587.65</v>
-      </c>
-      <c r="G15">
-        <v>53463174916175.62</v>
-      </c>
-      <c r="H15">
-        <v>3.284823176231511E+23</v>
-      </c>
-      <c r="I15">
-        <v>0.0109516746243123</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>53593446607012.6</v>
-      </c>
-      <c r="E16">
-        <v>595049213062.9365</v>
-      </c>
-      <c r="F16">
-        <v>52420035417161.29</v>
-      </c>
-      <c r="G16">
-        <v>54766857796863.91</v>
-      </c>
-      <c r="H16">
-        <v>3.5408356596682E+23</v>
-      </c>
-      <c r="I16">
-        <v>0.01110302193151122</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>53848736611815.41</v>
-      </c>
-      <c r="E17">
-        <v>582984833855.9563</v>
-      </c>
-      <c r="F17">
-        <v>52699115853493.64</v>
-      </c>
-      <c r="G17">
-        <v>54998357370137.19</v>
-      </c>
-      <c r="H17">
-        <v>3.39871316506057E+23</v>
-      </c>
-      <c r="I17">
-        <v>0.01082634190767697</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>373755142082.8049</v>
-      </c>
-      <c r="E18">
-        <v>11198446756.14565</v>
-      </c>
-      <c r="F18">
-        <v>351672291716.5687</v>
-      </c>
-      <c r="G18">
-        <v>395837992449.0411</v>
-      </c>
-      <c r="H18">
-        <v>1.254052097502291E+20</v>
-      </c>
-      <c r="I18">
-        <v>0.02996198712809857</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>356425108478.3435</v>
-      </c>
-      <c r="E19">
-        <v>10788204300.49493</v>
-      </c>
-      <c r="F19">
-        <v>335151238407.2576</v>
-      </c>
-      <c r="G19">
-        <v>377698978549.4294</v>
-      </c>
-      <c r="H19">
-        <v>1.163853520292172E+20</v>
-      </c>
-      <c r="I19">
-        <v>0.03026780112813074</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>357774054490.7054</v>
-      </c>
-      <c r="E20">
-        <v>11521385737.52493</v>
-      </c>
-      <c r="F20">
-        <v>335054382486.7443</v>
-      </c>
-      <c r="G20">
-        <v>380493726494.6664</v>
-      </c>
-      <c r="H20">
-        <v>1.327423293128429E+20</v>
-      </c>
-      <c r="I20">
-        <v>0.03220296607009619</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>348003742454.7445</v>
-      </c>
-      <c r="E21">
-        <v>11295638760.67699</v>
-      </c>
-      <c r="F21">
-        <v>325729233679.1238</v>
-      </c>
-      <c r="G21">
-        <v>370278251230.3652</v>
-      </c>
-      <c r="H21">
-        <v>1.275914550117085E+20</v>
-      </c>
-      <c r="I21">
-        <v>0.03245838300760778</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>26808401714542.1</v>
-      </c>
-      <c r="E22">
-        <v>281411949739.519</v>
-      </c>
-      <c r="F22">
-        <v>26253469578622.61</v>
-      </c>
-      <c r="G22">
-        <v>27363333850461.59</v>
-      </c>
-      <c r="H22">
-        <v>7.919268545619759E+22</v>
-      </c>
-      <c r="I22">
-        <v>0.01049715506116384</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>25985614787079.39</v>
-      </c>
-      <c r="E23">
-        <v>323710366135.9221</v>
-      </c>
-      <c r="F23">
-        <v>25347272012135.52</v>
-      </c>
-      <c r="G23">
-        <v>26623957562023.25</v>
-      </c>
-      <c r="H23">
-        <v>1.047884011438528E+23</v>
-      </c>
-      <c r="I23">
-        <v>0.01245729103538</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>25290899225841.58</v>
-      </c>
-      <c r="E24">
-        <v>277790721066.957</v>
-      </c>
-      <c r="F24">
-        <v>24743107995501.18</v>
-      </c>
-      <c r="G24">
-        <v>25838690456181.98</v>
-      </c>
-      <c r="H24">
-        <v>7.716768471089992E+22</v>
-      </c>
-      <c r="I24">
-        <v>0.01098382143657105</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>25929776772179.9</v>
-      </c>
-      <c r="E25">
-        <v>330161167113.1091</v>
-      </c>
-      <c r="F25">
-        <v>25278713298033.41</v>
-      </c>
-      <c r="G25">
-        <v>26580840246326.39</v>
-      </c>
-      <c r="H25">
-        <v>1.090063962694904E+23</v>
-      </c>
-      <c r="I25">
-        <v>0.01273289662359684</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>134966043654491.9</v>
-      </c>
-      <c r="E26">
-        <v>869021103985.047</v>
-      </c>
-      <c r="F26">
-        <v>133252371801395.7</v>
-      </c>
-      <c r="G26">
-        <v>136679715507588.1</v>
-      </c>
-      <c r="H26">
-        <v>7.551976791713899E+23</v>
-      </c>
-      <c r="I26">
-        <v>0.006438812907709654</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>134107304527981.5</v>
-      </c>
-      <c r="E27">
-        <v>985084678297.186</v>
-      </c>
-      <c r="F27">
-        <v>132164760349971.2</v>
-      </c>
-      <c r="G27">
-        <v>136049848705991.7</v>
-      </c>
-      <c r="H27">
-        <v>9.703918234158704E+23</v>
-      </c>
-      <c r="I27">
-        <v>0.007345496069467628</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>132802765145845.3</v>
-      </c>
-      <c r="E28">
-        <v>941876351307.5173</v>
-      </c>
-      <c r="F28">
-        <v>130945425911008.5</v>
-      </c>
-      <c r="G28">
-        <v>134660104380682.2</v>
-      </c>
-      <c r="H28">
-        <v>8.871310611523618E+23</v>
-      </c>
-      <c r="I28">
-        <v>0.007092294729504609</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>135127427405971.8</v>
-      </c>
-      <c r="E29">
-        <v>879967481733.4695</v>
-      </c>
-      <c r="F29">
-        <v>133392169771638.7</v>
-      </c>
-      <c r="G29">
-        <v>136862685040304.8</v>
-      </c>
-      <c r="H29">
-        <v>7.743427689083439E+23</v>
-      </c>
-      <c r="I29">
-        <v>0.006512130798507161</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>7562377149911.499</v>
-      </c>
-      <c r="E30">
-        <v>106084565564.5907</v>
-      </c>
-      <c r="F30">
-        <v>7353182996602.3</v>
-      </c>
-      <c r="G30">
-        <v>7771571303220.698</v>
-      </c>
-      <c r="H30">
-        <v>1.125393505102795E+22</v>
-      </c>
-      <c r="I30">
-        <v>0.01402793902785346</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>7699430910193.118</v>
-      </c>
-      <c r="E31">
-        <v>115212117952.213</v>
-      </c>
-      <c r="F31">
-        <v>7472237620220.147</v>
-      </c>
-      <c r="G31">
-        <v>7926624200166.089</v>
-      </c>
-      <c r="H31">
-        <v>1.327383212303464E+22</v>
-      </c>
-      <c r="I31">
-        <v>0.01496371865610042</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>7510142437037.821</v>
-      </c>
-      <c r="E32">
-        <v>97532050072.96645</v>
-      </c>
-      <c r="F32">
-        <v>7317813472622.146</v>
-      </c>
-      <c r="G32">
-        <v>7702471401453.497</v>
-      </c>
-      <c r="H32">
-        <v>9.512500791435634E+21</v>
-      </c>
-      <c r="I32">
-        <v>0.01298671108978799</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>7742342185281.2</v>
-      </c>
-      <c r="E33">
-        <v>112684438087.3799</v>
-      </c>
-      <c r="F33">
-        <v>7520133370159.46</v>
-      </c>
-      <c r="G33">
-        <v>7964551000402.94</v>
-      </c>
-      <c r="H33">
-        <v>1.269778258706856E+22</v>
-      </c>
-      <c r="I33">
-        <v>0.01455430868214555</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>536693233248.9134</v>
-      </c>
-      <c r="E34">
-        <v>15341810411.51207</v>
-      </c>
-      <c r="F34">
-        <v>506439849807.2625</v>
-      </c>
-      <c r="G34">
-        <v>566946616690.5643</v>
-      </c>
-      <c r="H34">
-        <v>2.353711467027801E+20</v>
-      </c>
-      <c r="I34">
-        <v>0.02858580928743829</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>530645831775.3615</v>
-      </c>
-      <c r="E35">
-        <v>17338109727.38733</v>
-      </c>
-      <c r="F35">
-        <v>496455832833.485</v>
-      </c>
-      <c r="G35">
-        <v>564835830717.2378</v>
-      </c>
-      <c r="H35">
-        <v>3.00610048918923E+20</v>
-      </c>
-      <c r="I35">
-        <v>0.03267360014754073</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>532840400611.1866</v>
-      </c>
-      <c r="E36">
-        <v>16454833153.76501</v>
-      </c>
-      <c r="F36">
-        <v>500392184689.049</v>
-      </c>
-      <c r="G36">
-        <v>565288616533.3242</v>
-      </c>
-      <c r="H36">
-        <v>2.707615341182441E+20</v>
-      </c>
-      <c r="I36">
-        <v>0.03088135421955756</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>529812098135.2516</v>
-      </c>
-      <c r="E37">
-        <v>14751555117.53881</v>
-      </c>
-      <c r="F37">
-        <v>500722672483.3305</v>
-      </c>
-      <c r="G37">
-        <v>558901523787.1726</v>
-      </c>
-      <c r="H37">
-        <v>2.176083783857855E+20</v>
-      </c>
-      <c r="I37">
-        <v>0.02784299409065778</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>526705897788.4686</v>
-      </c>
-      <c r="E38">
-        <v>16661759786.49681</v>
-      </c>
-      <c r="F38">
-        <v>493849631538.7355</v>
-      </c>
-      <c r="G38">
-        <v>559562164038.2017</v>
-      </c>
-      <c r="H38">
-        <v>2.776142391829221E+20</v>
-      </c>
-      <c r="I38">
-        <v>0.03163389636694057</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>516946613680.9266</v>
-      </c>
-      <c r="E39">
-        <v>15493739436.36995</v>
-      </c>
-      <c r="F39">
-        <v>486393632804.4454</v>
-      </c>
-      <c r="G39">
-        <v>547499594557.4078</v>
-      </c>
-      <c r="H39">
-        <v>2.400559617221255E+20</v>
-      </c>
-      <c r="I39">
-        <v>0.02997164315681755</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>536440534926.5225</v>
-      </c>
-      <c r="E40">
-        <v>15772138001.78999</v>
-      </c>
-      <c r="F40">
-        <v>505338564177.051</v>
-      </c>
-      <c r="G40">
-        <v>567542505675.994</v>
-      </c>
-      <c r="H40">
-        <v>2.48760337147508E+20</v>
-      </c>
-      <c r="I40">
-        <v>0.02940146572620643</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>533892565434.822</v>
-      </c>
-      <c r="E41">
-        <v>15704103240.37468</v>
-      </c>
-      <c r="F41">
-        <v>502924756278.36</v>
-      </c>
-      <c r="G41">
-        <v>564860374591.2841</v>
-      </c>
-      <c r="H41">
-        <v>2.466188585843464E+20</v>
-      </c>
-      <c r="I41">
-        <v>0.02941435085836917</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>103715204806.9746</v>
-      </c>
-      <c r="E42">
-        <v>4987699233.803226</v>
-      </c>
-      <c r="F42">
-        <v>93879678662.11688</v>
-      </c>
-      <c r="G42">
-        <v>113550730951.8323</v>
-      </c>
-      <c r="H42">
-        <v>2.487714364688128E+19</v>
-      </c>
-      <c r="I42">
-        <v>0.04809033779652543</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>102370961499.7079</v>
-      </c>
-      <c r="E43">
-        <v>4223023080.909912</v>
-      </c>
-      <c r="F43">
-        <v>94043343498.78143</v>
-      </c>
-      <c r="G43">
-        <v>110698579500.6344</v>
-      </c>
-      <c r="H43">
-        <v>1.783392394189785E+19</v>
-      </c>
-      <c r="I43">
-        <v>0.04125215802453863</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>106449546785.2802</v>
-      </c>
-      <c r="E44">
-        <v>4106684770.720252</v>
-      </c>
-      <c r="F44">
-        <v>98351342876.47935</v>
-      </c>
-      <c r="G44">
-        <v>114547750694.081</v>
-      </c>
-      <c r="H44">
-        <v>1.686485980606565E+19</v>
-      </c>
-      <c r="I44">
-        <v>0.03857869661957192</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>120051162321.2441</v>
-      </c>
-      <c r="E45">
-        <v>4671910441.740699</v>
-      </c>
-      <c r="F45">
-        <v>110838357951.4954</v>
-      </c>
-      <c r="G45">
-        <v>129263966690.9928</v>
-      </c>
-      <c r="H45">
-        <v>2.182674717564577E+19</v>
-      </c>
-      <c r="I45">
-        <v>0.0389159950758258</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>250009123769901.5</v>
-      </c>
-      <c r="E46">
-        <v>1376730279591.643</v>
-      </c>
-      <c r="F46">
-        <v>247294271485391.2</v>
-      </c>
-      <c r="G46">
-        <v>252723976054411.8</v>
-      </c>
-      <c r="H46">
-        <v>1.895386262744483E+24</v>
-      </c>
-      <c r="I46">
-        <v>0.005506720150176323</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>254676036461773.8</v>
-      </c>
-      <c r="E47">
-        <v>1434975827957.702</v>
-      </c>
-      <c r="F47">
-        <v>251846326486989.6</v>
-      </c>
-      <c r="G47">
-        <v>257505746436558.1</v>
-      </c>
-      <c r="H47">
-        <v>2.059155626822891E+24</v>
-      </c>
-      <c r="I47">
-        <v>0.005634514530278892</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>259594670256388</v>
-      </c>
-      <c r="E48">
-        <v>1387298776314.004</v>
-      </c>
-      <c r="F48">
-        <v>256858977355603.2</v>
-      </c>
-      <c r="G48">
-        <v>262330363157172.8</v>
-      </c>
-      <c r="H48">
-        <v>1.924597894762333E+24</v>
-      </c>
-      <c r="I48">
-        <v>0.00534409575876054</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>259710330854036.8</v>
-      </c>
-      <c r="E49">
-        <v>1565418193242.909</v>
-      </c>
-      <c r="F49">
-        <v>256623394203380.8</v>
-      </c>
-      <c r="G49">
-        <v>262797267504692.9</v>
-      </c>
-      <c r="H49">
-        <v>2.450534119735893E+24</v>
-      </c>
-      <c r="I49">
-        <v>0.006027554576266392</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>45280847512189.11</v>
-      </c>
-      <c r="E50">
-        <v>459054734275.1638</v>
-      </c>
-      <c r="F50">
-        <v>44375611524765.45</v>
-      </c>
-      <c r="G50">
-        <v>46186083499612.77</v>
-      </c>
-      <c r="H50">
-        <v>2.107312490604412E+23</v>
-      </c>
-      <c r="I50">
-        <v>0.01013794483752963</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>46361473616813.15</v>
-      </c>
-      <c r="E51">
-        <v>430830193988.9053</v>
-      </c>
-      <c r="F51">
-        <v>45511895196315.48</v>
-      </c>
-      <c r="G51">
-        <v>47211052037310.82</v>
-      </c>
-      <c r="H51">
-        <v>1.856146560525178E+23</v>
-      </c>
-      <c r="I51">
-        <v>0.009292849436793208</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>46836728518359.22</v>
-      </c>
-      <c r="E52">
-        <v>425369312157.0088</v>
-      </c>
-      <c r="F52">
-        <v>45997918719527.34</v>
-      </c>
-      <c r="G52">
-        <v>47675538317191.1</v>
-      </c>
-      <c r="H52">
-        <v>1.809390517249268E+23</v>
-      </c>
-      <c r="I52">
-        <v>0.009081960367711658</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>46697693288612.56</v>
-      </c>
-      <c r="E53">
-        <v>448580174670.1644</v>
-      </c>
-      <c r="F53">
-        <v>45813112677550.14</v>
-      </c>
-      <c r="G53">
-        <v>47582273899674.98</v>
-      </c>
-      <c r="H53">
-        <v>2.012241731071152E+23</v>
-      </c>
-      <c r="I53">
-        <v>0.009606045675484202</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>4048718949264258</v>
-      </c>
-      <c r="E54">
-        <v>6591586382263.992</v>
-      </c>
-      <c r="F54">
-        <v>4035720627360752</v>
-      </c>
-      <c r="G54">
-        <v>4061717271167764</v>
-      </c>
-      <c r="H54">
-        <v>4.34490110348481E+25</v>
-      </c>
-      <c r="I54">
-        <v>0.001628067165161422</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>4039061235815648</v>
-      </c>
-      <c r="E55">
-        <v>6163355797671.703</v>
-      </c>
-      <c r="F55">
-        <v>4026907366015877</v>
-      </c>
-      <c r="G55">
-        <v>4051215105615418</v>
-      </c>
-      <c r="H55">
-        <v>3.79869546886934E+25</v>
-      </c>
-      <c r="I55">
-        <v>0.001525937696368467</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>4043480473537969</v>
-      </c>
-      <c r="E56">
-        <v>5804744595580.55</v>
-      </c>
-      <c r="F56">
-        <v>4032033769445004</v>
-      </c>
-      <c r="G56">
-        <v>4054927177630934</v>
-      </c>
-      <c r="H56">
-        <v>3.36950598199216E+25</v>
-      </c>
-      <c r="I56">
-        <v>0.001435581211179068</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>4038146174845312</v>
-      </c>
-      <c r="E57">
-        <v>6631062182780.931</v>
-      </c>
-      <c r="F57">
-        <v>4025070008378637</v>
-      </c>
-      <c r="G57">
-        <v>4051222341311987</v>
-      </c>
-      <c r="H57">
-        <v>4.39709856719074E+25</v>
-      </c>
-      <c r="I57">
-        <v>0.001642105534486984</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I52"/>
   <sheetViews>
@@ -6252,32 +2304,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>freq</t>
+          <t>Qtd_horasHabituais</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>freq_se</t>
+          <t>Qtd_horasHabituais_se</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>freq_low</t>
+          <t>Qtd_horasHabituais_low</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>freq_upp</t>
+          <t>Qtd_horasHabituais_upp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>freq_var</t>
+          <t>Qtd_horasHabituais_var</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>freq_cv</t>
+          <t>Qtd_horasHabituais_cv</t>
         </is>
       </c>
     </row>
@@ -6296,19 +2348,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>146.2051635</v>
+        <v>3947.5394145</v>
       </c>
       <c r="E2">
-        <v>148.8066837592117</v>
+        <v>4017.780461498717</v>
       </c>
       <c r="F2">
-        <v>-147.2351503673785</v>
+        <v>-3975.349059919218</v>
       </c>
       <c r="G2">
-        <v>439.6454773673785</v>
+        <v>11870.42788891922</v>
       </c>
       <c r="H2">
-        <v>22143.42913141405</v>
+        <v>16142559.83680084</v>
       </c>
       <c r="I2">
         <v>1.01779362778259</v>
@@ -6329,19 +2381,19 @@
         </is>
       </c>
       <c r="D3">
-        <v>607.52552267</v>
+        <v>8505.35731738</v>
       </c>
       <c r="E3">
-        <v>658.1219102615187</v>
+        <v>9213.706743661261</v>
       </c>
       <c r="F3">
-        <v>-690.262285185666</v>
+        <v>-9663.671992599324</v>
       </c>
       <c r="G3">
-        <v>1905.313330525666</v>
+        <v>26674.38662735932</v>
       </c>
       <c r="H3">
-        <v>433124.4487662704</v>
+        <v>84892391.95818901</v>
       </c>
       <c r="I3">
         <v>1.083282735792159</v>
@@ -6362,22 +2414,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>730.42022565</v>
+        <v>17530.0854156</v>
       </c>
       <c r="E4">
-        <v>706.0448453297289</v>
+        <v>16945.07628791349</v>
       </c>
       <c r="F4">
-        <v>-661.8695276331748</v>
+        <v>-15884.8686631962</v>
       </c>
       <c r="G4">
-        <v>2122.709978933175</v>
+        <v>50945.03949439619</v>
       </c>
       <c r="H4">
-        <v>498499.3236166808</v>
+        <v>287135610.4032081</v>
       </c>
       <c r="I4">
-        <v>0.9666282785384543</v>
+        <v>0.9666282785384545</v>
       </c>
     </row>
     <row r="5">
@@ -6395,22 +2447,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>366243.4184616</v>
+        <v>5912328.92573157</v>
       </c>
       <c r="E5">
-        <v>16657.27420906815</v>
+        <v>279392.7180137122</v>
       </c>
       <c r="F5">
-        <v>333395.9975756322</v>
+        <v>5361378.627028145</v>
       </c>
       <c r="G5">
-        <v>399090.8393475679</v>
+        <v>6463279.224434994</v>
       </c>
       <c r="H5">
-        <v>277464784.0760868</v>
+        <v>78060290879.08971</v>
       </c>
       <c r="I5">
-        <v>0.04548142947943413</v>
+        <v>0.04725594964748028</v>
       </c>
     </row>
     <row r="6">
@@ -6428,22 +2480,22 @@
         </is>
       </c>
       <c r="D6">
-        <v>359810.55435203</v>
+        <v>5782147.99464628</v>
       </c>
       <c r="E6">
-        <v>16033.96936356833</v>
+        <v>281797.61468886</v>
       </c>
       <c r="F6">
-        <v>328192.2635352093</v>
+        <v>5226455.344206049</v>
       </c>
       <c r="G6">
-        <v>391428.8451688506</v>
+        <v>6337840.645086511</v>
       </c>
       <c r="H6">
-        <v>257088173.5518476</v>
+        <v>79409895644.33122</v>
       </c>
       <c r="I6">
-        <v>0.0445622541352166</v>
+        <v>0.0487358011157407</v>
       </c>
     </row>
     <row r="7">
@@ -6461,22 +2513,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>362016.82719163</v>
+        <v>5997459.93419956</v>
       </c>
       <c r="E7">
-        <v>17088.54041117741</v>
+        <v>287749.2277925102</v>
       </c>
       <c r="F7">
-        <v>328318.9680960982</v>
+        <v>5430030.961350732</v>
       </c>
       <c r="G7">
-        <v>395714.6862871618</v>
+        <v>6564888.907048389</v>
       </c>
       <c r="H7">
-        <v>292018213.3844435</v>
+        <v>82799618095.18591</v>
       </c>
       <c r="I7">
-        <v>0.04720371852254195</v>
+        <v>0.04797851606338644</v>
       </c>
     </row>
     <row r="8">
@@ -6494,22 +2546,22 @@
         </is>
       </c>
       <c r="D8">
-        <v>366776.57926684</v>
+        <v>5977963.36313869</v>
       </c>
       <c r="E8">
-        <v>15261.76241619482</v>
+        <v>273624.5055844566</v>
       </c>
       <c r="F8">
-        <v>336681.0469934092</v>
+        <v>5438387.728683771</v>
       </c>
       <c r="G8">
-        <v>396872.1115402709</v>
+        <v>6517538.997593609</v>
       </c>
       <c r="H8">
-        <v>232921392.0483769</v>
+        <v>74870370056.33833</v>
       </c>
       <c r="I8">
-        <v>0.04161051517166661</v>
+        <v>0.04577219513784238</v>
       </c>
     </row>
     <row r="9">
@@ -6527,22 +2579,22 @@
         </is>
       </c>
       <c r="D9">
-        <v>1684.84137719</v>
+        <v>33018.07486284</v>
       </c>
       <c r="E9">
-        <v>738.3645033849981</v>
+        <v>16677.87312287316</v>
       </c>
       <c r="F9">
-        <v>228.8186626967581</v>
+        <v>130.0338139898668</v>
       </c>
       <c r="G9">
-        <v>3140.864091683242</v>
+        <v>65906.11591169014</v>
       </c>
       <c r="H9">
-        <v>545182.1398589748</v>
+        <v>278151451.902655</v>
       </c>
       <c r="I9">
-        <v>0.438239773417989</v>
+        <v>0.5051134323292475</v>
       </c>
     </row>
     <row r="10">
@@ -6560,22 +2612,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>1072.1177586</v>
+        <v>21572.46641944</v>
       </c>
       <c r="E10">
-        <v>555.2496702353485</v>
+        <v>11543.2502639515</v>
       </c>
       <c r="F10">
-        <v>-22.81046231422283</v>
+        <v>-1190.32148049492</v>
       </c>
       <c r="G10">
-        <v>2167.045979514222</v>
+        <v>44335.25431937492</v>
       </c>
       <c r="H10">
-        <v>308302.1962964633</v>
+        <v>133246626.6562163</v>
       </c>
       <c r="I10">
-        <v>0.517899890922811</v>
+        <v>0.5350918174821825</v>
       </c>
     </row>
     <row r="11">
@@ -6593,22 +2645,22 @@
         </is>
       </c>
       <c r="D11">
-        <v>2113.37555025</v>
+        <v>45759.71118885</v>
       </c>
       <c r="E11">
-        <v>919.0693326217054</v>
+        <v>23421.10630889569</v>
       </c>
       <c r="F11">
-        <v>301.0107651655378</v>
+        <v>-425.6926705928418</v>
       </c>
       <c r="G11">
-        <v>3925.740335334462</v>
+        <v>91945.11504829285</v>
       </c>
       <c r="H11">
-        <v>844688.4381657069</v>
+        <v>548548220.7325933</v>
       </c>
       <c r="I11">
-        <v>0.4348821639925686</v>
+        <v>0.5118281059999908</v>
       </c>
     </row>
     <row r="12">
@@ -6626,22 +2678,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>3193.92859406</v>
+        <v>97656.80476365</v>
       </c>
       <c r="E12">
-        <v>1487.951918470566</v>
+        <v>54621.4849579143</v>
       </c>
       <c r="F12">
-        <v>259.7520709000182</v>
+        <v>-10054.38995585772</v>
       </c>
       <c r="G12">
-        <v>6128.105117219981</v>
+        <v>205367.9994831577</v>
       </c>
       <c r="H12">
-        <v>2214000.911680238</v>
+        <v>2983506619.007658</v>
       </c>
       <c r="I12">
-        <v>0.4658688742252495</v>
+        <v>0.5593208285905911</v>
       </c>
     </row>
     <row r="13">
@@ -6659,22 +2711,22 @@
         </is>
       </c>
       <c r="D13">
-        <v>106988.66816283</v>
+        <v>1933807.01174816</v>
       </c>
       <c r="E13">
-        <v>8086.244528614423</v>
+        <v>164934.1550289921</v>
       </c>
       <c r="F13">
-        <v>91042.94534620887</v>
+        <v>1608564.025368106</v>
       </c>
       <c r="G13">
-        <v>122934.3909794511</v>
+        <v>2259049.998128214</v>
       </c>
       <c r="H13">
-        <v>65387350.57654669</v>
+        <v>27203275495.12759</v>
       </c>
       <c r="I13">
-        <v>0.07558038311410391</v>
+        <v>0.08528987330534692</v>
       </c>
     </row>
     <row r="14">
@@ -6692,22 +2744,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>109176.27979913</v>
+        <v>1903291.67749381</v>
       </c>
       <c r="E14">
-        <v>8256.818029447038</v>
+        <v>159581.6737907755</v>
       </c>
       <c r="F14">
-        <v>92894.19345126607</v>
+        <v>1588603.551519442</v>
       </c>
       <c r="G14">
-        <v>125458.3661469939</v>
+        <v>2217979.803468178</v>
       </c>
       <c r="H14">
-        <v>68175043.97140168</v>
+        <v>25466310609.86547</v>
       </c>
       <c r="I14">
-        <v>0.07562831454450085</v>
+        <v>0.08384509619718782</v>
       </c>
     </row>
     <row r="15">
@@ -6725,22 +2777,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>115095.1286788</v>
+        <v>2079707.34101115</v>
       </c>
       <c r="E15">
-        <v>7897.697738590367</v>
+        <v>161150.5494627239</v>
       </c>
       <c r="F15">
-        <v>99521.21193866446</v>
+        <v>1761925.460388366</v>
       </c>
       <c r="G15">
-        <v>130669.0454189355</v>
+        <v>2397489.221633934</v>
       </c>
       <c r="H15">
-        <v>62373629.5701354</v>
+        <v>25969499592.13781</v>
       </c>
       <c r="I15">
-        <v>0.06861887057471171</v>
+        <v>0.0774871282535228</v>
       </c>
     </row>
     <row r="16">
@@ -6758,22 +2810,22 @@
         </is>
       </c>
       <c r="D16">
-        <v>117198.46746047</v>
+        <v>2019267.64684843</v>
       </c>
       <c r="E16">
-        <v>7423.273959505517</v>
+        <v>142809.4272072025</v>
       </c>
       <c r="F16">
-        <v>102560.0937962495</v>
+        <v>1737653.662286343</v>
       </c>
       <c r="G16">
-        <v>131836.8411246905</v>
+        <v>2300881.631410517</v>
       </c>
       <c r="H16">
-        <v>55104996.27787272</v>
+        <v>20394532499.24927</v>
       </c>
       <c r="I16">
-        <v>0.06333934325557049</v>
+        <v>0.07072337707687844</v>
       </c>
     </row>
     <row r="17">
@@ -6791,22 +2843,22 @@
         </is>
       </c>
       <c r="D17">
-        <v>3933.63541149</v>
+        <v>74988.05701746</v>
       </c>
       <c r="E17">
-        <v>1048.086788339782</v>
+        <v>24670.9034178915</v>
       </c>
       <c r="F17">
-        <v>1866.853810279566</v>
+        <v>26338.10756994595</v>
       </c>
       <c r="G17">
-        <v>6000.417012700434</v>
+        <v>123638.0064649741</v>
       </c>
       <c r="H17">
-        <v>1098485.915892399</v>
+        <v>608653475.4549304</v>
       </c>
       <c r="I17">
-        <v>0.2664422801560002</v>
+        <v>0.3289977684332746</v>
       </c>
     </row>
     <row r="18">
@@ -6824,22 +2876,22 @@
         </is>
       </c>
       <c r="D18">
-        <v>5419.14972405</v>
+        <v>117300.7623009</v>
       </c>
       <c r="E18">
-        <v>1623.476403680802</v>
+        <v>38192.39708334565</v>
       </c>
       <c r="F18">
-        <v>2217.724805373344</v>
+        <v>41987.01493173502</v>
       </c>
       <c r="G18">
-        <v>8620.574642726657</v>
+        <v>192614.509670065</v>
       </c>
       <c r="H18">
-        <v>2635675.63330835</v>
+        <v>1458659194.971949</v>
       </c>
       <c r="I18">
-        <v>0.299581389396914</v>
+        <v>0.3255937671178512</v>
       </c>
     </row>
     <row r="19">
@@ -6857,22 +2909,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>10071.81047571</v>
+        <v>204244.13678471</v>
       </c>
       <c r="E19">
-        <v>2953.354001303531</v>
+        <v>71876.61456040535</v>
       </c>
       <c r="F19">
-        <v>4247.924725347405</v>
+        <v>62506.57632365794</v>
       </c>
       <c r="G19">
-        <v>15895.6962260726</v>
+        <v>345981.6972457621</v>
       </c>
       <c r="H19">
-        <v>8722299.857015578</v>
+        <v>5166247720.665073</v>
       </c>
       <c r="I19">
-        <v>0.2932297036790039</v>
+        <v>0.3519151917500044</v>
       </c>
     </row>
     <row r="20">
@@ -6890,22 +2942,22 @@
         </is>
       </c>
       <c r="D20">
-        <v>7491.2829806</v>
+        <v>165929.3194506</v>
       </c>
       <c r="E20">
-        <v>2062.527059021556</v>
+        <v>59024.40190875537</v>
       </c>
       <c r="F20">
-        <v>3424.069248866123</v>
+        <v>49535.76383608424</v>
       </c>
       <c r="G20">
-        <v>11558.49671233388</v>
+        <v>282322.8750651157</v>
       </c>
       <c r="H20">
-        <v>4254017.869196109</v>
+        <v>3483880020.686285</v>
       </c>
       <c r="I20">
-        <v>0.2753236080338753</v>
+        <v>0.355720147013126</v>
       </c>
     </row>
     <row r="21">
@@ -6923,22 +2975,22 @@
         </is>
       </c>
       <c r="D21">
-        <v>85510.5857619</v>
+        <v>1656269.71174188</v>
       </c>
       <c r="E21">
-        <v>6257.281062805842</v>
+        <v>137336.6194345002</v>
       </c>
       <c r="F21">
-        <v>73171.49942087746</v>
+        <v>1385447.866282605</v>
       </c>
       <c r="G21">
-        <v>97849.67210292254</v>
+        <v>1927091.557201155</v>
       </c>
       <c r="H21">
-        <v>39153566.29894861</v>
+        <v>18861347037.69674</v>
       </c>
       <c r="I21">
-        <v>0.07317551396769673</v>
+        <v>0.0829192361973853</v>
       </c>
     </row>
     <row r="22">
@@ -6956,22 +3008,22 @@
         </is>
       </c>
       <c r="D22">
-        <v>80017.48422083</v>
+        <v>1469564.40582336</v>
       </c>
       <c r="E22">
-        <v>6282.314635500003</v>
+        <v>129213.6330298649</v>
       </c>
       <c r="F22">
-        <v>67629.03276230721</v>
+        <v>1214760.736563574</v>
       </c>
       <c r="G22">
-        <v>92405.93567935278</v>
+        <v>1724368.075083146</v>
       </c>
       <c r="H22">
-        <v>39467477.17941753</v>
+        <v>16696162960.7766</v>
       </c>
       <c r="I22">
-        <v>0.07851177397882503</v>
+        <v>0.08792648523456159</v>
       </c>
     </row>
     <row r="23">
@@ -6989,22 +3041,22 @@
         </is>
       </c>
       <c r="D23">
-        <v>92245.48849264</v>
+        <v>1747132.42110455</v>
       </c>
       <c r="E23">
-        <v>7612.478133175089</v>
+        <v>178120.8897439929</v>
       </c>
       <c r="F23">
-        <v>77234.01241995202</v>
+        <v>1395885.766905939</v>
       </c>
       <c r="G23">
-        <v>107256.964565328</v>
+        <v>2098379.075303162</v>
       </c>
       <c r="H23">
-        <v>57949823.32806889</v>
+        <v>31727051363.19166</v>
       </c>
       <c r="I23">
-        <v>0.08252412402566947</v>
+        <v>0.1019504232148491</v>
       </c>
     </row>
     <row r="24">
@@ -7022,22 +3074,22 @@
         </is>
       </c>
       <c r="D24">
-        <v>82823.27268433</v>
+        <v>1652738.9247956</v>
       </c>
       <c r="E24">
-        <v>6829.199254252321</v>
+        <v>151658.151387554</v>
       </c>
       <c r="F24">
-        <v>69356.38852290796</v>
+        <v>1353675.64067779</v>
       </c>
       <c r="G24">
-        <v>96290.15684575205</v>
+        <v>1951802.20891341</v>
       </c>
       <c r="H24">
-        <v>46637962.45428046</v>
+        <v>23000194882.29026</v>
       </c>
       <c r="I24">
-        <v>0.08245507612674176</v>
+        <v>0.09176171088625515</v>
       </c>
     </row>
     <row r="25">
@@ -7055,22 +3107,22 @@
         </is>
       </c>
       <c r="D25">
-        <v>318267.01948012</v>
+        <v>5315481.08188944</v>
       </c>
       <c r="E25">
-        <v>13810.29334369075</v>
+        <v>248926.8375340651</v>
       </c>
       <c r="F25">
-        <v>291033.7211429926</v>
+        <v>4824608.175574248</v>
       </c>
       <c r="G25">
-        <v>345500.3178172474</v>
+        <v>5806353.988204633</v>
       </c>
       <c r="H25">
-        <v>190724202.2387891</v>
+        <v>61964570444.71082</v>
       </c>
       <c r="I25">
-        <v>0.04339215972251687</v>
+        <v>0.04683053776302437</v>
       </c>
     </row>
     <row r="26">
@@ -7088,22 +3140,22 @@
         </is>
       </c>
       <c r="D26">
-        <v>309177.99948762</v>
+        <v>4993215.09170161</v>
       </c>
       <c r="E26">
-        <v>13737.56356187038</v>
+        <v>251145.3725748235</v>
       </c>
       <c r="F26">
-        <v>282088.1211197153</v>
+        <v>4497967.330694143</v>
       </c>
       <c r="G26">
-        <v>336267.8778555247</v>
+        <v>5488462.852709077</v>
       </c>
       <c r="H26">
-        <v>188720652.6164288</v>
+        <v>63073998165.74689</v>
       </c>
       <c r="I26">
-        <v>0.0444325391348567</v>
+        <v>0.05029732706532317</v>
       </c>
     </row>
     <row r="27">
@@ -7121,22 +3173,22 @@
         </is>
       </c>
       <c r="D27">
-        <v>309551.10462627</v>
+        <v>5014960.40135475</v>
       </c>
       <c r="E27">
-        <v>13800.01380666552</v>
+        <v>271282.5268133302</v>
       </c>
       <c r="F27">
-        <v>282338.0770894514</v>
+        <v>4480003.047264052</v>
       </c>
       <c r="G27">
-        <v>336764.1321630886</v>
+        <v>5549917.755445448</v>
       </c>
       <c r="H27">
-        <v>190440381.0641589</v>
+        <v>73594209354.2252</v>
       </c>
       <c r="I27">
-        <v>0.04458072867588915</v>
+        <v>0.05409464982815128</v>
       </c>
     </row>
     <row r="28">
@@ -7154,22 +3206,22 @@
         </is>
       </c>
       <c r="D28">
-        <v>346501.66593694</v>
+        <v>5993669.68513848</v>
       </c>
       <c r="E28">
-        <v>14936.239427623</v>
+        <v>290933.4971233334</v>
       </c>
       <c r="F28">
-        <v>317048.0508511278</v>
+        <v>5419961.471544074</v>
       </c>
       <c r="G28">
-        <v>375955.2810227522</v>
+        <v>6567377.898732886</v>
       </c>
       <c r="H28">
-        <v>223091248.2392799</v>
+        <v>84642299748.41264</v>
       </c>
       <c r="I28">
-        <v>0.04310582284571542</v>
+        <v>0.04854012857010014</v>
       </c>
     </row>
     <row r="29">
@@ -7187,22 +3239,22 @@
         </is>
       </c>
       <c r="D29">
-        <v>78781.51998591999</v>
+        <v>1546185.42878068</v>
       </c>
       <c r="E29">
-        <v>7327.563586137144</v>
+        <v>155158.612917784</v>
       </c>
       <c r="F29">
-        <v>64331.88301881601</v>
+        <v>1240219.386640431</v>
       </c>
       <c r="G29">
-        <v>93231.15695302396</v>
+        <v>1852151.470920929</v>
       </c>
       <c r="H29">
-        <v>53693188.10888304</v>
+        <v>24074195162.57073</v>
       </c>
       <c r="I29">
-        <v>0.09301119840600616</v>
+        <v>0.1003492918958251</v>
       </c>
     </row>
     <row r="30">
@@ -7220,22 +3272,22 @@
         </is>
       </c>
       <c r="D30">
-        <v>74254.69498041</v>
+        <v>1338051.30281562</v>
       </c>
       <c r="E30">
-        <v>6260.200188734546</v>
+        <v>123292.589427318</v>
       </c>
       <c r="F30">
-        <v>61909.85224990886</v>
+        <v>1094923.674236676</v>
       </c>
       <c r="G30">
-        <v>86599.53771091114</v>
+        <v>1581178.931394564</v>
       </c>
       <c r="H30">
-        <v>39190106.40303204</v>
+        <v>15201062607.69321</v>
       </c>
       <c r="I30">
-        <v>0.08430712954091485</v>
+        <v>0.0921433947770741</v>
       </c>
     </row>
     <row r="31">
@@ -7253,22 +3305,22 @@
         </is>
       </c>
       <c r="D31">
-        <v>75580.62890056999</v>
+        <v>1453989.91850419</v>
       </c>
       <c r="E31">
-        <v>6501.099547188072</v>
+        <v>134294.6797971573</v>
       </c>
       <c r="F31">
-        <v>62760.74310366037</v>
+        <v>1189166.645819992</v>
       </c>
       <c r="G31">
-        <v>88400.51469747961</v>
+        <v>1718813.191188388</v>
       </c>
       <c r="H31">
-        <v>42264295.32244896</v>
+        <v>18035061021.82101</v>
       </c>
       <c r="I31">
-        <v>0.08601542011168743</v>
+        <v>0.09236286860593546</v>
       </c>
     </row>
     <row r="32">
@@ -7286,22 +3338,22 @@
         </is>
       </c>
       <c r="D32">
-        <v>73882.16663119</v>
+        <v>1291880.66704818</v>
       </c>
       <c r="E32">
-        <v>8012.50846943229</v>
+        <v>156186.4626883318</v>
       </c>
       <c r="F32">
-        <v>58081.84811902041</v>
+        <v>983887.749826392</v>
       </c>
       <c r="G32">
-        <v>89682.4851433596</v>
+        <v>1599873.584269968</v>
       </c>
       <c r="H32">
-        <v>64200291.97272418</v>
+        <v>24394211127.09367</v>
       </c>
       <c r="I32">
-        <v>0.1084498307883914</v>
+        <v>0.1208985215679421</v>
       </c>
     </row>
     <row r="33">
@@ -7319,22 +3371,22 @@
         </is>
       </c>
       <c r="D33">
-        <v>37136.44818165</v>
+        <v>659267.49177585</v>
       </c>
       <c r="E33">
-        <v>5412.057358120834</v>
+        <v>102571.101629271</v>
       </c>
       <c r="F33">
-        <v>26464.10625643777</v>
+        <v>457001.7366668974</v>
       </c>
       <c r="G33">
-        <v>47808.79010686222</v>
+        <v>861533.2468848025</v>
       </c>
       <c r="H33">
-        <v>29290364.84758986</v>
+        <v>10520830889.44225</v>
       </c>
       <c r="I33">
-        <v>0.1457343828803493</v>
+        <v>0.1555834360237879</v>
       </c>
     </row>
     <row r="34">
@@ -7352,22 +3404,22 @@
         </is>
       </c>
       <c r="D34">
-        <v>29640.10872585</v>
+        <v>591555.26964887</v>
       </c>
       <c r="E34">
-        <v>4161.225262392742</v>
+        <v>94639.55358865412</v>
       </c>
       <c r="F34">
-        <v>21434.35333756892</v>
+        <v>404930.1826046591</v>
       </c>
       <c r="G34">
-        <v>37845.86411413108</v>
+        <v>778180.3566930809</v>
       </c>
       <c r="H34">
-        <v>17315795.68437554</v>
+        <v>8956645103.459734</v>
       </c>
       <c r="I34">
-        <v>0.1403917003436501</v>
+        <v>0.1599842963867593</v>
       </c>
     </row>
     <row r="35">
@@ -7385,22 +3437,22 @@
         </is>
       </c>
       <c r="D35">
-        <v>26787.04623025</v>
+        <v>488043.38343608</v>
       </c>
       <c r="E35">
-        <v>4251.448461602625</v>
+        <v>95406.65607235643</v>
       </c>
       <c r="F35">
-        <v>18403.37461384366</v>
+        <v>299905.6036290206</v>
       </c>
       <c r="G35">
-        <v>35170.71784665633</v>
+        <v>676181.1632431394</v>
       </c>
       <c r="H35">
-        <v>18074814.02166332</v>
+        <v>9102430022.908907</v>
       </c>
       <c r="I35">
-        <v>0.1587128504225136</v>
+        <v>0.1954880637877801</v>
       </c>
     </row>
     <row r="36">
@@ -7418,22 +3470,22 @@
         </is>
       </c>
       <c r="D36">
-        <v>41311.06362832</v>
+        <v>867467.34211764</v>
       </c>
       <c r="E36">
-        <v>7309.460712571234</v>
+        <v>285068.5520826596</v>
       </c>
       <c r="F36">
-        <v>26897.12474121408</v>
+        <v>305324.5452778679</v>
       </c>
       <c r="G36">
-        <v>55725.00251542592</v>
+        <v>1429610.138957412</v>
       </c>
       <c r="H36">
-        <v>53428215.90862237</v>
+        <v>81264079386.50401</v>
       </c>
       <c r="I36">
-        <v>0.1769371221795503</v>
+        <v>0.3286216532218461</v>
       </c>
     </row>
     <row r="37">
@@ -7451,22 +3503,22 @@
         </is>
       </c>
       <c r="D37">
-        <v>9034.29032434</v>
+        <v>179839.71076256</v>
       </c>
       <c r="E37">
-        <v>2585.851807971039</v>
+        <v>51084.69296894063</v>
       </c>
       <c r="F37">
-        <v>3935.102929146284</v>
+        <v>79102.91615136605</v>
       </c>
       <c r="G37">
-        <v>14133.47771953372</v>
+        <v>280576.505373754</v>
       </c>
       <c r="H37">
-        <v>6686629.572787093</v>
+        <v>2609645855.730932</v>
       </c>
       <c r="I37">
-        <v>0.2862263349014023</v>
+        <v>0.2840568012055306</v>
       </c>
     </row>
     <row r="38">
@@ -7484,22 +3536,22 @@
         </is>
       </c>
       <c r="D38">
-        <v>10398.56373992</v>
+        <v>190013.9821487</v>
       </c>
       <c r="E38">
-        <v>2839.639297067948</v>
+        <v>57768.40671157103</v>
       </c>
       <c r="F38">
-        <v>4798.918444752417</v>
+        <v>76097.19448282068</v>
       </c>
       <c r="G38">
-        <v>15998.20903508758</v>
+        <v>303930.7698145793</v>
       </c>
       <c r="H38">
-        <v>8063551.337452548</v>
+        <v>3337188813.993484</v>
       </c>
       <c r="I38">
-        <v>0.273079952971447</v>
+        <v>0.3040218728028287</v>
       </c>
     </row>
     <row r="39">
@@ -7517,22 +3569,22 @@
         </is>
       </c>
       <c r="D39">
-        <v>9258.76262218</v>
+        <v>161088.33477442</v>
       </c>
       <c r="E39">
-        <v>2673.988475906926</v>
+        <v>46908.44072022262</v>
       </c>
       <c r="F39">
-        <v>3985.773547861569</v>
+        <v>68586.92811553166</v>
       </c>
       <c r="G39">
-        <v>14531.75169649843</v>
+        <v>253589.7414333084</v>
       </c>
       <c r="H39">
-        <v>7150214.369283048</v>
+        <v>2200401810.80264</v>
       </c>
       <c r="I39">
-        <v>0.2888062460421227</v>
+        <v>0.2911970055802665</v>
       </c>
     </row>
     <row r="40">
@@ -7550,22 +3602,22 @@
         </is>
       </c>
       <c r="D40">
-        <v>5320.94692565</v>
+        <v>80322.64824360001</v>
       </c>
       <c r="E40">
-        <v>1599.708278950832</v>
+        <v>22409.80167531351</v>
       </c>
       <c r="F40">
-        <v>2166.3917160792</v>
+        <v>36131.49317458166</v>
       </c>
       <c r="G40">
-        <v>8475.502135220799</v>
+        <v>124513.8033126183</v>
       </c>
       <c r="H40">
-        <v>2559066.577743832</v>
+        <v>502199211.126884</v>
       </c>
       <c r="I40">
-        <v>0.3006435323080042</v>
+        <v>0.2789972960969833</v>
       </c>
     </row>
     <row r="41">
@@ -7583,22 +3635,22 @@
         </is>
       </c>
       <c r="D41">
-        <v>8863.269056560001</v>
+        <v>167712.43704617</v>
       </c>
       <c r="E41">
-        <v>2190.199728360762</v>
+        <v>46765.7278574769</v>
       </c>
       <c r="F41">
-        <v>4544.290369000586</v>
+        <v>75492.45395092196</v>
       </c>
       <c r="G41">
-        <v>13182.24774411942</v>
+        <v>259932.4201414181</v>
       </c>
       <c r="H41">
-        <v>4796974.850111556</v>
+        <v>2187033302.039591</v>
       </c>
       <c r="I41">
-        <v>0.2471096967026768</v>
+        <v>0.2788447218413661</v>
       </c>
     </row>
     <row r="42">
@@ -7616,22 +3668,22 @@
         </is>
       </c>
       <c r="D42">
-        <v>10303.67058131</v>
+        <v>216308.03877371</v>
       </c>
       <c r="E42">
-        <v>3025.820474210822</v>
+        <v>75727.6177047805</v>
       </c>
       <c r="F42">
-        <v>4336.88409545903</v>
+        <v>66976.46746017327</v>
       </c>
       <c r="G42">
-        <v>16270.45706716097</v>
+        <v>365639.6100872468</v>
       </c>
       <c r="H42">
-        <v>9155589.542153405</v>
+        <v>5734672083.241385</v>
       </c>
       <c r="I42">
-        <v>0.2936643257694407</v>
+        <v>0.3500915552380497</v>
       </c>
     </row>
     <row r="43">
@@ -7649,22 +3701,22 @@
         </is>
       </c>
       <c r="D43">
-        <v>11519.0930229</v>
+        <v>195786.40582462</v>
       </c>
       <c r="E43">
-        <v>2549.716525727802</v>
+        <v>50268.62330137148</v>
       </c>
       <c r="F43">
-        <v>6491.162834004221</v>
+        <v>96658.86513495438</v>
       </c>
       <c r="G43">
-        <v>16547.02321179578</v>
+        <v>294913.9465142856</v>
       </c>
       <c r="H43">
-        <v>6501054.361569453</v>
+        <v>2526934488.615188</v>
       </c>
       <c r="I43">
-        <v>0.2213469863173217</v>
+        <v>0.2567523679167016</v>
       </c>
     </row>
     <row r="44">
@@ -7682,22 +3734,22 @@
         </is>
       </c>
       <c r="D44">
-        <v>15326.23430055</v>
+        <v>256076.80857363</v>
       </c>
       <c r="E44">
-        <v>4386.811495929889</v>
+        <v>77636.00450726548</v>
       </c>
       <c r="F44">
-        <v>6675.632662752238</v>
+        <v>102981.9814159693</v>
       </c>
       <c r="G44">
-        <v>23976.83593834777</v>
+        <v>409171.6357312907</v>
       </c>
       <c r="H44">
-        <v>19244115.10082263</v>
+        <v>6027349195.852145</v>
       </c>
       <c r="I44">
-        <v>0.2862289202881665</v>
+        <v>0.303174680048946</v>
       </c>
     </row>
     <row r="45">
@@ -7715,22 +3767,22 @@
         </is>
       </c>
       <c r="D45">
-        <v>1038108.93753433</v>
+        <v>18008591.72198192</v>
       </c>
       <c r="E45">
-        <v>31875.84332316367</v>
+        <v>596120.5452472736</v>
       </c>
       <c r="F45">
-        <v>975251.1596896738</v>
+        <v>16833067.91161864</v>
       </c>
       <c r="G45">
-        <v>1100966.715378986</v>
+        <v>19184115.53234521</v>
       </c>
       <c r="H45">
-        <v>1016069387.562878</v>
+        <v>355359704465.9068</v>
       </c>
       <c r="I45">
-        <v>0.03070568239097696</v>
+        <v>0.03310200788880276</v>
       </c>
     </row>
     <row r="46">
@@ -7748,22 +3800,22 @@
         </is>
       </c>
       <c r="D46">
-        <v>1034704.83058556</v>
+        <v>17771860.51340047</v>
       </c>
       <c r="E46">
-        <v>32177.17413775508</v>
+        <v>607503.3155623596</v>
       </c>
       <c r="F46">
-        <v>971252.8414690855</v>
+        <v>16573890.37462264</v>
       </c>
       <c r="G46">
-        <v>1098156.819702034</v>
+        <v>18969830.6521783</v>
       </c>
       <c r="H46">
-        <v>1035370535.491414</v>
+        <v>369060278419.2599</v>
       </c>
       <c r="I46">
-        <v>0.03109792588824136</v>
+        <v>0.03418343932557233</v>
       </c>
     </row>
     <row r="47">
@@ -7781,22 +3833,22 @@
         </is>
       </c>
       <c r="D47">
-        <v>1161338.02786061</v>
+        <v>19671522.40338756</v>
       </c>
       <c r="E47">
-        <v>34401.12723342602</v>
+        <v>624762.8336184331</v>
       </c>
       <c r="F47">
-        <v>1093500.499883018</v>
+        <v>18439517.24502843</v>
       </c>
       <c r="G47">
-        <v>1229175.555838202</v>
+        <v>20903527.5617467</v>
       </c>
       <c r="H47">
-        <v>1183437554.930366</v>
+        <v>390328598270.9339</v>
       </c>
       <c r="I47">
-        <v>0.02962197603810406</v>
+        <v>0.03175976016532635</v>
       </c>
     </row>
     <row r="48">
@@ -7814,22 +3866,22 @@
         </is>
       </c>
       <c r="D48">
-        <v>1121505.31326336</v>
+        <v>18381570.79508251</v>
       </c>
       <c r="E48">
-        <v>34718.03399637983</v>
+        <v>608485.7518548177</v>
       </c>
       <c r="F48">
-        <v>1053042.858920644</v>
+        <v>17181663.33462846</v>
       </c>
       <c r="G48">
-        <v>1189967.767606076</v>
+        <v>19581478.25553656</v>
       </c>
       <c r="H48">
-        <v>1205341884.573786</v>
+        <v>370254910210.3228</v>
       </c>
       <c r="I48">
-        <v>0.03095663799876006</v>
+        <v>0.03310303339351181</v>
       </c>
     </row>
     <row r="49">
@@ -7847,22 +3899,22 @@
         </is>
       </c>
       <c r="D49">
-        <v>564550.71225407</v>
+        <v>11660317.40792704</v>
       </c>
       <c r="E49">
-        <v>20453.12594328353</v>
+        <v>434905.2799465748</v>
       </c>
       <c r="F49">
-        <v>524218.0366998067</v>
+        <v>10802703.09500675</v>
       </c>
       <c r="G49">
-        <v>604883.3878083333</v>
+        <v>12517931.72084733</v>
       </c>
       <c r="H49">
-        <v>418330360.8518177</v>
+        <v>189142602525.4086</v>
       </c>
       <c r="I49">
-        <v>0.03622903221859513</v>
+        <v>0.03729789376495986</v>
       </c>
     </row>
     <row r="50">
@@ -7880,22 +3932,22 @@
         </is>
       </c>
       <c r="D50">
-        <v>571242.6546482</v>
+        <v>11527188.65899953</v>
       </c>
       <c r="E50">
-        <v>18836.04511913427</v>
+        <v>393613.4256948479</v>
       </c>
       <c r="F50">
-        <v>534098.7922077019</v>
+        <v>10751000.08829523</v>
       </c>
       <c r="G50">
-        <v>608386.5170886981</v>
+        <v>12303377.22970384</v>
       </c>
       <c r="H50">
-        <v>354796595.7300618</v>
+        <v>154931528887.2336</v>
       </c>
       <c r="I50">
-        <v>0.032973807130587</v>
+        <v>0.03414652412993564</v>
       </c>
     </row>
     <row r="51">
@@ -7913,22 +3965,22 @@
         </is>
       </c>
       <c r="D51">
-        <v>583467.91790715</v>
+        <v>11913644.31564493</v>
       </c>
       <c r="E51">
-        <v>22526.47785663507</v>
+        <v>479599.8426063595</v>
       </c>
       <c r="F51">
-        <v>539046.6824788162</v>
+        <v>10967894.26739521</v>
       </c>
       <c r="G51">
-        <v>627889.1533354837</v>
+        <v>12859394.36389465</v>
       </c>
       <c r="H51">
-        <v>507442204.6254702</v>
+        <v>230016009028.0448</v>
       </c>
       <c r="I51">
-        <v>0.03860791170392991</v>
+        <v>0.04025635060940604</v>
       </c>
     </row>
     <row r="52">
@@ -7946,22 +3998,22 @@
         </is>
       </c>
       <c r="D52">
-        <v>618310.57539755</v>
+        <v>12673075.22950038</v>
       </c>
       <c r="E52">
-        <v>20607.09696534306</v>
+        <v>450058.2061465943</v>
       </c>
       <c r="F52">
-        <v>577674.2756787114</v>
+        <v>11785580.0045954</v>
       </c>
       <c r="G52">
-        <v>658946.8751163887</v>
+        <v>13560570.45440536</v>
       </c>
       <c r="H52">
-        <v>424652445.3390511</v>
+        <v>202552388919.8903</v>
       </c>
       <c r="I52">
-        <v>0.03332806810249604</v>
+        <v>0.03551294362231425</v>
       </c>
     </row>
   </sheetData>
@@ -7969,1750 +4021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_SEC</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>3947.5394145</v>
-      </c>
-      <c r="E2">
-        <v>4017.780461498717</v>
-      </c>
-      <c r="F2">
-        <v>-3975.349059919218</v>
-      </c>
-      <c r="G2">
-        <v>11870.42788891922</v>
-      </c>
-      <c r="H2">
-        <v>16142559.83680084</v>
-      </c>
-      <c r="I2">
-        <v>1.01779362778259</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>8505.35731738</v>
-      </c>
-      <c r="E3">
-        <v>9213.706743661261</v>
-      </c>
-      <c r="F3">
-        <v>-9663.671992599324</v>
-      </c>
-      <c r="G3">
-        <v>26674.38662735932</v>
-      </c>
-      <c r="H3">
-        <v>84892391.95818901</v>
-      </c>
-      <c r="I3">
-        <v>1.083282735792159</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>17530.0854156</v>
-      </c>
-      <c r="E4">
-        <v>16945.07628791349</v>
-      </c>
-      <c r="F4">
-        <v>-15884.8686631962</v>
-      </c>
-      <c r="G4">
-        <v>50945.03949439619</v>
-      </c>
-      <c r="H4">
-        <v>287135610.4032081</v>
-      </c>
-      <c r="I4">
-        <v>0.9666282785384545</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>5912328.92573157</v>
-      </c>
-      <c r="E5">
-        <v>279392.7180137122</v>
-      </c>
-      <c r="F5">
-        <v>5361378.627028145</v>
-      </c>
-      <c r="G5">
-        <v>6463279.224434994</v>
-      </c>
-      <c r="H5">
-        <v>78060290879.08971</v>
-      </c>
-      <c r="I5">
-        <v>0.04725594964748028</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>5782147.99464628</v>
-      </c>
-      <c r="E6">
-        <v>281797.61468886</v>
-      </c>
-      <c r="F6">
-        <v>5226455.344206049</v>
-      </c>
-      <c r="G6">
-        <v>6337840.645086511</v>
-      </c>
-      <c r="H6">
-        <v>79409895644.33122</v>
-      </c>
-      <c r="I6">
-        <v>0.0487358011157407</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>5997459.93419956</v>
-      </c>
-      <c r="E7">
-        <v>287749.2277925102</v>
-      </c>
-      <c r="F7">
-        <v>5430030.961350732</v>
-      </c>
-      <c r="G7">
-        <v>6564888.907048389</v>
-      </c>
-      <c r="H7">
-        <v>82799618095.18591</v>
-      </c>
-      <c r="I7">
-        <v>0.04797851606338644</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>5977963.36313869</v>
-      </c>
-      <c r="E8">
-        <v>273624.5055844566</v>
-      </c>
-      <c r="F8">
-        <v>5438387.728683771</v>
-      </c>
-      <c r="G8">
-        <v>6517538.997593609</v>
-      </c>
-      <c r="H8">
-        <v>74870370056.33833</v>
-      </c>
-      <c r="I8">
-        <v>0.04577219513784238</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>33018.07486284</v>
-      </c>
-      <c r="E9">
-        <v>16677.87312287316</v>
-      </c>
-      <c r="F9">
-        <v>130.0338139898668</v>
-      </c>
-      <c r="G9">
-        <v>65906.11591169014</v>
-      </c>
-      <c r="H9">
-        <v>278151451.902655</v>
-      </c>
-      <c r="I9">
-        <v>0.5051134323292475</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>21572.46641944</v>
-      </c>
-      <c r="E10">
-        <v>11543.2502639515</v>
-      </c>
-      <c r="F10">
-        <v>-1190.32148049492</v>
-      </c>
-      <c r="G10">
-        <v>44335.25431937492</v>
-      </c>
-      <c r="H10">
-        <v>133246626.6562163</v>
-      </c>
-      <c r="I10">
-        <v>0.5350918174821825</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>45759.71118885</v>
-      </c>
-      <c r="E11">
-        <v>23421.10630889569</v>
-      </c>
-      <c r="F11">
-        <v>-425.6926705928418</v>
-      </c>
-      <c r="G11">
-        <v>91945.11504829285</v>
-      </c>
-      <c r="H11">
-        <v>548548220.7325933</v>
-      </c>
-      <c r="I11">
-        <v>0.5118281059999908</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>97656.80476365</v>
-      </c>
-      <c r="E12">
-        <v>54621.4849579143</v>
-      </c>
-      <c r="F12">
-        <v>-10054.38995585772</v>
-      </c>
-      <c r="G12">
-        <v>205367.9994831577</v>
-      </c>
-      <c r="H12">
-        <v>2983506619.007658</v>
-      </c>
-      <c r="I12">
-        <v>0.5593208285905911</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>1933807.01174816</v>
-      </c>
-      <c r="E13">
-        <v>164934.1550289921</v>
-      </c>
-      <c r="F13">
-        <v>1608564.025368106</v>
-      </c>
-      <c r="G13">
-        <v>2259049.998128214</v>
-      </c>
-      <c r="H13">
-        <v>27203275495.12759</v>
-      </c>
-      <c r="I13">
-        <v>0.08528987330534692</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>1903291.67749381</v>
-      </c>
-      <c r="E14">
-        <v>159581.6737907755</v>
-      </c>
-      <c r="F14">
-        <v>1588603.551519442</v>
-      </c>
-      <c r="G14">
-        <v>2217979.803468178</v>
-      </c>
-      <c r="H14">
-        <v>25466310609.86547</v>
-      </c>
-      <c r="I14">
-        <v>0.08384509619718782</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>2079707.34101115</v>
-      </c>
-      <c r="E15">
-        <v>161150.5494627239</v>
-      </c>
-      <c r="F15">
-        <v>1761925.460388366</v>
-      </c>
-      <c r="G15">
-        <v>2397489.221633934</v>
-      </c>
-      <c r="H15">
-        <v>25969499592.13781</v>
-      </c>
-      <c r="I15">
-        <v>0.0774871282535228</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>2019267.64684843</v>
-      </c>
-      <c r="E16">
-        <v>142809.4272072025</v>
-      </c>
-      <c r="F16">
-        <v>1737653.662286343</v>
-      </c>
-      <c r="G16">
-        <v>2300881.631410517</v>
-      </c>
-      <c r="H16">
-        <v>20394532499.24927</v>
-      </c>
-      <c r="I16">
-        <v>0.07072337707687844</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>74988.05701746</v>
-      </c>
-      <c r="E17">
-        <v>24670.9034178915</v>
-      </c>
-      <c r="F17">
-        <v>26338.10756994595</v>
-      </c>
-      <c r="G17">
-        <v>123638.0064649741</v>
-      </c>
-      <c r="H17">
-        <v>608653475.4549304</v>
-      </c>
-      <c r="I17">
-        <v>0.3289977684332746</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>117300.7623009</v>
-      </c>
-      <c r="E18">
-        <v>38192.39708334565</v>
-      </c>
-      <c r="F18">
-        <v>41987.01493173502</v>
-      </c>
-      <c r="G18">
-        <v>192614.509670065</v>
-      </c>
-      <c r="H18">
-        <v>1458659194.971949</v>
-      </c>
-      <c r="I18">
-        <v>0.3255937671178512</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>204244.13678471</v>
-      </c>
-      <c r="E19">
-        <v>71876.61456040535</v>
-      </c>
-      <c r="F19">
-        <v>62506.57632365794</v>
-      </c>
-      <c r="G19">
-        <v>345981.6972457621</v>
-      </c>
-      <c r="H19">
-        <v>5166247720.665073</v>
-      </c>
-      <c r="I19">
-        <v>0.3519151917500044</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>165929.3194506</v>
-      </c>
-      <c r="E20">
-        <v>59024.40190875537</v>
-      </c>
-      <c r="F20">
-        <v>49535.76383608424</v>
-      </c>
-      <c r="G20">
-        <v>282322.8750651157</v>
-      </c>
-      <c r="H20">
-        <v>3483880020.686285</v>
-      </c>
-      <c r="I20">
-        <v>0.355720147013126</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>1656269.71174188</v>
-      </c>
-      <c r="E21">
-        <v>137336.6194345002</v>
-      </c>
-      <c r="F21">
-        <v>1385447.866282605</v>
-      </c>
-      <c r="G21">
-        <v>1927091.557201155</v>
-      </c>
-      <c r="H21">
-        <v>18861347037.69674</v>
-      </c>
-      <c r="I21">
-        <v>0.0829192361973853</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>1469564.40582336</v>
-      </c>
-      <c r="E22">
-        <v>129213.6330298649</v>
-      </c>
-      <c r="F22">
-        <v>1214760.736563574</v>
-      </c>
-      <c r="G22">
-        <v>1724368.075083146</v>
-      </c>
-      <c r="H22">
-        <v>16696162960.7766</v>
-      </c>
-      <c r="I22">
-        <v>0.08792648523456159</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>1747132.42110455</v>
-      </c>
-      <c r="E23">
-        <v>178120.8897439929</v>
-      </c>
-      <c r="F23">
-        <v>1395885.766905939</v>
-      </c>
-      <c r="G23">
-        <v>2098379.075303162</v>
-      </c>
-      <c r="H23">
-        <v>31727051363.19166</v>
-      </c>
-      <c r="I23">
-        <v>0.1019504232148491</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>1652738.9247956</v>
-      </c>
-      <c r="E24">
-        <v>151658.151387554</v>
-      </c>
-      <c r="F24">
-        <v>1353675.64067779</v>
-      </c>
-      <c r="G24">
-        <v>1951802.20891341</v>
-      </c>
-      <c r="H24">
-        <v>23000194882.29026</v>
-      </c>
-      <c r="I24">
-        <v>0.09176171088625515</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>5315481.08188944</v>
-      </c>
-      <c r="E25">
-        <v>248926.8375340651</v>
-      </c>
-      <c r="F25">
-        <v>4824608.175574248</v>
-      </c>
-      <c r="G25">
-        <v>5806353.988204633</v>
-      </c>
-      <c r="H25">
-        <v>61964570444.71082</v>
-      </c>
-      <c r="I25">
-        <v>0.04683053776302437</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>4993215.09170161</v>
-      </c>
-      <c r="E26">
-        <v>251145.3725748235</v>
-      </c>
-      <c r="F26">
-        <v>4497967.330694143</v>
-      </c>
-      <c r="G26">
-        <v>5488462.852709077</v>
-      </c>
-      <c r="H26">
-        <v>63073998165.74689</v>
-      </c>
-      <c r="I26">
-        <v>0.05029732706532317</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>5014960.40135475</v>
-      </c>
-      <c r="E27">
-        <v>271282.5268133302</v>
-      </c>
-      <c r="F27">
-        <v>4480003.047264052</v>
-      </c>
-      <c r="G27">
-        <v>5549917.755445448</v>
-      </c>
-      <c r="H27">
-        <v>73594209354.2252</v>
-      </c>
-      <c r="I27">
-        <v>0.05409464982815128</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>5993669.68513848</v>
-      </c>
-      <c r="E28">
-        <v>290933.4971233334</v>
-      </c>
-      <c r="F28">
-        <v>5419961.471544074</v>
-      </c>
-      <c r="G28">
-        <v>6567377.898732886</v>
-      </c>
-      <c r="H28">
-        <v>84642299748.41264</v>
-      </c>
-      <c r="I28">
-        <v>0.04854012857010014</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>1546185.42878068</v>
-      </c>
-      <c r="E29">
-        <v>155158.612917784</v>
-      </c>
-      <c r="F29">
-        <v>1240219.386640431</v>
-      </c>
-      <c r="G29">
-        <v>1852151.470920929</v>
-      </c>
-      <c r="H29">
-        <v>24074195162.57073</v>
-      </c>
-      <c r="I29">
-        <v>0.1003492918958251</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>1338051.30281562</v>
-      </c>
-      <c r="E30">
-        <v>123292.589427318</v>
-      </c>
-      <c r="F30">
-        <v>1094923.674236676</v>
-      </c>
-      <c r="G30">
-        <v>1581178.931394564</v>
-      </c>
-      <c r="H30">
-        <v>15201062607.69321</v>
-      </c>
-      <c r="I30">
-        <v>0.0921433947770741</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>1453989.91850419</v>
-      </c>
-      <c r="E31">
-        <v>134294.6797971573</v>
-      </c>
-      <c r="F31">
-        <v>1189166.645819992</v>
-      </c>
-      <c r="G31">
-        <v>1718813.191188388</v>
-      </c>
-      <c r="H31">
-        <v>18035061021.82101</v>
-      </c>
-      <c r="I31">
-        <v>0.09236286860593546</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>1291880.66704818</v>
-      </c>
-      <c r="E32">
-        <v>156186.4626883318</v>
-      </c>
-      <c r="F32">
-        <v>983887.749826392</v>
-      </c>
-      <c r="G32">
-        <v>1599873.584269968</v>
-      </c>
-      <c r="H32">
-        <v>24394211127.09367</v>
-      </c>
-      <c r="I32">
-        <v>0.1208985215679421</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>8</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>659267.49177585</v>
-      </c>
-      <c r="E33">
-        <v>102571.101629271</v>
-      </c>
-      <c r="F33">
-        <v>457001.7366668974</v>
-      </c>
-      <c r="G33">
-        <v>861533.2468848025</v>
-      </c>
-      <c r="H33">
-        <v>10520830889.44225</v>
-      </c>
-      <c r="I33">
-        <v>0.1555834360237879</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>591555.26964887</v>
-      </c>
-      <c r="E34">
-        <v>94639.55358865412</v>
-      </c>
-      <c r="F34">
-        <v>404930.1826046591</v>
-      </c>
-      <c r="G34">
-        <v>778180.3566930809</v>
-      </c>
-      <c r="H34">
-        <v>8956645103.459734</v>
-      </c>
-      <c r="I34">
-        <v>0.1599842963867593</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>488043.38343608</v>
-      </c>
-      <c r="E35">
-        <v>95406.65607235643</v>
-      </c>
-      <c r="F35">
-        <v>299905.6036290206</v>
-      </c>
-      <c r="G35">
-        <v>676181.1632431394</v>
-      </c>
-      <c r="H35">
-        <v>9102430022.908907</v>
-      </c>
-      <c r="I35">
-        <v>0.1954880637877801</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>867467.34211764</v>
-      </c>
-      <c r="E36">
-        <v>285068.5520826596</v>
-      </c>
-      <c r="F36">
-        <v>305324.5452778679</v>
-      </c>
-      <c r="G36">
-        <v>1429610.138957412</v>
-      </c>
-      <c r="H36">
-        <v>81264079386.50401</v>
-      </c>
-      <c r="I36">
-        <v>0.3286216532218461</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>9</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>179839.71076256</v>
-      </c>
-      <c r="E37">
-        <v>51084.69296894063</v>
-      </c>
-      <c r="F37">
-        <v>79102.91615136605</v>
-      </c>
-      <c r="G37">
-        <v>280576.505373754</v>
-      </c>
-      <c r="H37">
-        <v>2609645855.730932</v>
-      </c>
-      <c r="I37">
-        <v>0.2840568012055306</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>190013.9821487</v>
-      </c>
-      <c r="E38">
-        <v>57768.40671157103</v>
-      </c>
-      <c r="F38">
-        <v>76097.19448282068</v>
-      </c>
-      <c r="G38">
-        <v>303930.7698145793</v>
-      </c>
-      <c r="H38">
-        <v>3337188813.993484</v>
-      </c>
-      <c r="I38">
-        <v>0.3040218728028287</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>161088.33477442</v>
-      </c>
-      <c r="E39">
-        <v>46908.44072022262</v>
-      </c>
-      <c r="F39">
-        <v>68586.92811553166</v>
-      </c>
-      <c r="G39">
-        <v>253589.7414333084</v>
-      </c>
-      <c r="H39">
-        <v>2200401810.80264</v>
-      </c>
-      <c r="I39">
-        <v>0.2911970055802665</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>80322.64824360001</v>
-      </c>
-      <c r="E40">
-        <v>22409.80167531351</v>
-      </c>
-      <c r="F40">
-        <v>36131.49317458166</v>
-      </c>
-      <c r="G40">
-        <v>124513.8033126183</v>
-      </c>
-      <c r="H40">
-        <v>502199211.126884</v>
-      </c>
-      <c r="I40">
-        <v>0.2789972960969833</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>10</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>167712.43704617</v>
-      </c>
-      <c r="E41">
-        <v>46765.7278574769</v>
-      </c>
-      <c r="F41">
-        <v>75492.45395092196</v>
-      </c>
-      <c r="G41">
-        <v>259932.4201414181</v>
-      </c>
-      <c r="H41">
-        <v>2187033302.039591</v>
-      </c>
-      <c r="I41">
-        <v>0.2788447218413661</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>216308.03877371</v>
-      </c>
-      <c r="E42">
-        <v>75727.6177047805</v>
-      </c>
-      <c r="F42">
-        <v>66976.46746017327</v>
-      </c>
-      <c r="G42">
-        <v>365639.6100872468</v>
-      </c>
-      <c r="H42">
-        <v>5734672083.241385</v>
-      </c>
-      <c r="I42">
-        <v>0.3500915552380497</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>195786.40582462</v>
-      </c>
-      <c r="E43">
-        <v>50268.62330137148</v>
-      </c>
-      <c r="F43">
-        <v>96658.86513495438</v>
-      </c>
-      <c r="G43">
-        <v>294913.9465142856</v>
-      </c>
-      <c r="H43">
-        <v>2526934488.615188</v>
-      </c>
-      <c r="I43">
-        <v>0.2567523679167016</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>256076.80857363</v>
-      </c>
-      <c r="E44">
-        <v>77636.00450726548</v>
-      </c>
-      <c r="F44">
-        <v>102981.9814159693</v>
-      </c>
-      <c r="G44">
-        <v>409171.6357312907</v>
-      </c>
-      <c r="H44">
-        <v>6027349195.852145</v>
-      </c>
-      <c r="I44">
-        <v>0.303174680048946</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>11</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>18008591.72198192</v>
-      </c>
-      <c r="E45">
-        <v>596120.5452472736</v>
-      </c>
-      <c r="F45">
-        <v>16833067.91161864</v>
-      </c>
-      <c r="G45">
-        <v>19184115.53234521</v>
-      </c>
-      <c r="H45">
-        <v>355359704465.9068</v>
-      </c>
-      <c r="I45">
-        <v>0.03310200788880276</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>17771860.51340047</v>
-      </c>
-      <c r="E46">
-        <v>607503.3155623596</v>
-      </c>
-      <c r="F46">
-        <v>16573890.37462264</v>
-      </c>
-      <c r="G46">
-        <v>18969830.6521783</v>
-      </c>
-      <c r="H46">
-        <v>369060278419.2599</v>
-      </c>
-      <c r="I46">
-        <v>0.03418343932557233</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>19671522.40338756</v>
-      </c>
-      <c r="E47">
-        <v>624762.8336184331</v>
-      </c>
-      <c r="F47">
-        <v>18439517.24502843</v>
-      </c>
-      <c r="G47">
-        <v>20903527.5617467</v>
-      </c>
-      <c r="H47">
-        <v>390328598270.9339</v>
-      </c>
-      <c r="I47">
-        <v>0.03175976016532635</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>18381570.79508251</v>
-      </c>
-      <c r="E48">
-        <v>608485.7518548177</v>
-      </c>
-      <c r="F48">
-        <v>17181663.33462846</v>
-      </c>
-      <c r="G48">
-        <v>19581478.25553656</v>
-      </c>
-      <c r="H48">
-        <v>370254910210.3228</v>
-      </c>
-      <c r="I48">
-        <v>0.03310303339351181</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>12</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>11660317.40792704</v>
-      </c>
-      <c r="E49">
-        <v>434905.2799465748</v>
-      </c>
-      <c r="F49">
-        <v>10802703.09500675</v>
-      </c>
-      <c r="G49">
-        <v>12517931.72084733</v>
-      </c>
-      <c r="H49">
-        <v>189142602525.4086</v>
-      </c>
-      <c r="I49">
-        <v>0.03729789376495986</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>11527188.65899953</v>
-      </c>
-      <c r="E50">
-        <v>393613.4256948479</v>
-      </c>
-      <c r="F50">
-        <v>10751000.08829523</v>
-      </c>
-      <c r="G50">
-        <v>12303377.22970384</v>
-      </c>
-      <c r="H50">
-        <v>154931528887.2336</v>
-      </c>
-      <c r="I50">
-        <v>0.03414652412993564</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>11913644.31564493</v>
-      </c>
-      <c r="E51">
-        <v>479599.8426063595</v>
-      </c>
-      <c r="F51">
-        <v>10967894.26739521</v>
-      </c>
-      <c r="G51">
-        <v>12859394.36389465</v>
-      </c>
-      <c r="H51">
-        <v>230016009028.0448</v>
-      </c>
-      <c r="I51">
-        <v>0.04025635060940604</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>12673075.22950038</v>
-      </c>
-      <c r="E52">
-        <v>450058.2061465943</v>
-      </c>
-      <c r="F52">
-        <v>11785580.0045954</v>
-      </c>
-      <c r="G52">
-        <v>13560570.45440536</v>
-      </c>
-      <c r="H52">
-        <v>202552388919.8903</v>
-      </c>
-      <c r="I52">
-        <v>0.03551294362231425</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I52"/>
   <sheetViews>
